--- a/exports/B框-ppt-resource-container-web.xlsx
+++ b/exports/B框-ppt-resource-container-web.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,670 +433,568 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>className.hot</v>
+        <v>disney.authorize_video</v>
       </c>
       <c r="B4" t="str">
-        <v>frameB-com-list__img-hot-cn</v>
+        <v>英语视频</v>
       </c>
       <c r="C4" t="str">
-        <v>frameB-com-list__img-hot</v>
+        <v>English video</v>
       </c>
       <c r="D4" t="str">
-        <v>frameB-com-list__img-hot</v>
+        <v>英語視頻</v>
       </c>
       <c r="E4" t="str">
-        <v>frameB-com-list__img-hot</v>
+        <v>فيديو عربي</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>className.boutique</v>
+        <v>disney.skin_center</v>
       </c>
       <c r="B5" t="str">
-        <v>frameB-com-list__img-boutique-cn</v>
+        <v>皮肤中心</v>
       </c>
       <c r="C5" t="str">
-        <v>frameB-com-list__img-boutique</v>
+        <v>Skin Center</v>
       </c>
       <c r="D5" t="str">
-        <v>frameB-com-list__img-boutique</v>
+        <v>皮膚中心</v>
       </c>
       <c r="E5" t="str">
-        <v>frameB-com-list__img-boutique</v>
+        <v>مركز الجلد</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>className.feature</v>
+        <v>disney.more_theme</v>
       </c>
       <c r="B6" t="str">
-        <v>frameB-com-list__img-feature-cn</v>
+        <v>更多主题</v>
       </c>
       <c r="C6" t="str">
-        <v>frameB-com-list__img-feature</v>
+        <v>More</v>
       </c>
       <c r="D6" t="str">
-        <v>frameB-com-list__img-feature</v>
+        <v>更多主題</v>
       </c>
       <c r="E6" t="str">
-        <v>frameB-com-list__img-feature</v>
+        <v>المزيد من المواضيع</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>className.news</v>
+        <v>disney.ipzone_placeholder</v>
       </c>
       <c r="B7" t="str">
-        <v>frameB-com-list__img-new-cn</v>
+        <v>搜索你想要的资源</v>
       </c>
       <c r="C7" t="str">
-        <v>frameB-com-list__img-new</v>
+        <v>Search for resources you want</v>
       </c>
       <c r="D7" t="str">
-        <v>frameB-com-list__img-new</v>
+        <v>搜索你想要的資源</v>
       </c>
       <c r="E7" t="str">
-        <v>frameB-com-list__img-new</v>
+        <v>البحث عن الموارد التي تريد</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>className.hard</v>
+        <v>disney.tips</v>
       </c>
       <c r="B8" t="str">
-        <v>icon-hard-cn</v>
+        <v>温馨提示</v>
       </c>
       <c r="C8" t="str">
-        <v>icon-hard</v>
+        <v>tips</v>
       </c>
       <c r="D8" t="str">
-        <v>icon-hard</v>
+        <v>溫馨提示</v>
       </c>
       <c r="E8" t="str">
-        <v>icon-hard</v>
+        <v>نصائح</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>audioItem.hot</v>
+        <v>disney.tips_desc</v>
       </c>
       <c r="B9" t="str">
-        <v>audio-container__hot-cn</v>
+        <v>您的版本过旧，无法插入最新资源，快去更新后体验吧~</v>
       </c>
       <c r="C9" t="str">
-        <v>audio-container__hot</v>
+        <v>Your version is too old to insert the latest resources. Go to update and experience it~</v>
       </c>
       <c r="D9" t="str">
-        <v>audio-container__hot</v>
+        <v>您的版本過舊，無法插入最新資源，快去更新後體驗吧~</v>
       </c>
       <c r="E9" t="str">
-        <v>audio-container__hot</v>
+        <v>أنت تستخدم إصدارًا منخفضًا جدًا. يُرجى ترقية الإصدار قبل استخدامه!</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>audioItem.boutique</v>
+        <v>disney.update_now</v>
       </c>
       <c r="B10" t="str">
-        <v>audio-container__boutique-cn</v>
+        <v>立即更新</v>
       </c>
       <c r="C10" t="str">
-        <v>audio-container__boutique</v>
+        <v>Update now</v>
       </c>
       <c r="D10" t="str">
-        <v>audio-container__boutique</v>
+        <v>立即更新</v>
       </c>
       <c r="E10" t="str">
-        <v>audio-container__boutique</v>
+        <v>تحديث فوري</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>audioItem.feature</v>
+        <v>disney.encourage_desc</v>
       </c>
       <c r="B11" t="str">
-        <v>audio-container__feature-cn</v>
+        <v>您可以在：放映态下 &gt; 互动工具 &gt; 表扬鼓励 &gt; 表扬工具 中进行体验</v>
       </c>
       <c r="C11" t="str">
-        <v>audio-container__feature</v>
+        <v>You can experience it in: Show &gt; Interactive Tools &gt; praise and encouragement &gt; praise tool</v>
       </c>
       <c r="D11" t="str">
-        <v>audio-container__feature</v>
+        <v>您可以在：放映態下 &gt; 互動工具 &gt; 表揚鼓勵 &gt; 表揚工具 中進行體驗</v>
       </c>
       <c r="E11" t="str">
-        <v>audio-container__feature</v>
+        <v>يمكنك تجربة مع أدوات تفاعلية في حالة العرض</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>audioItem.news</v>
+        <v>disney.team_competition</v>
       </c>
       <c r="B12" t="str">
-        <v>audio-container__new-cn</v>
+        <v>团队竞赛</v>
       </c>
       <c r="C12" t="str">
-        <v>audio-container__new</v>
+        <v>Team Competition</v>
       </c>
       <c r="D12" t="str">
-        <v>audio-container__new</v>
+        <v>團隊競賽</v>
       </c>
       <c r="E12" t="str">
-        <v>audio-container__new</v>
+        <v>فريق المنافسة</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>disney.authorize_video</v>
+        <v>disney.random_rollcall</v>
       </c>
       <c r="B13" t="str">
-        <v>英语视频</v>
+        <v>随机点名</v>
       </c>
       <c r="C13" t="str">
-        <v>English video</v>
+        <v>Random Roll Call</v>
       </c>
       <c r="D13" t="str">
-        <v>英語視頻</v>
+        <v>隨機點名</v>
       </c>
       <c r="E13" t="str">
-        <v>فيديو عربي</v>
+        <v>اسم عشوائي</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>disney.skin_center</v>
+        <v>disney.class_encourage</v>
       </c>
       <c r="B14" t="str">
-        <v>皮肤中心</v>
+        <v>课堂鼓励</v>
       </c>
       <c r="C14" t="str">
-        <v>Skin Center</v>
+        <v>Classroom Encouragement</v>
       </c>
       <c r="D14" t="str">
-        <v>皮膚中心</v>
+        <v>課堂鼓勵</v>
       </c>
       <c r="E14" t="str">
-        <v>مركز الجلد</v>
+        <v>تشجيع الفصول الدراسية</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>disney.more_theme</v>
+        <v>disney.disneyResponder</v>
       </c>
       <c r="B15" t="str">
-        <v>更多主题</v>
+        <v>抢答工具</v>
       </c>
       <c r="C15" t="str">
-        <v>More</v>
+        <v>Answer Tool</v>
       </c>
       <c r="D15" t="str">
-        <v>更多主題</v>
+        <v>搶答工具</v>
       </c>
       <c r="E15" t="str">
-        <v>المزيد من المواضيع</v>
+        <v>أداة الرد</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>disney.ipzone_placeholder</v>
+        <v>disney.encourage</v>
       </c>
       <c r="B16" t="str">
-        <v>搜索你想要的资源</v>
+        <v>鼓励</v>
       </c>
       <c r="C16" t="str">
-        <v>Search for resources you want</v>
+        <v>Encouragement</v>
       </c>
       <c r="D16" t="str">
-        <v>搜索你想要的資源</v>
+        <v>鼓勵</v>
       </c>
       <c r="E16" t="str">
-        <v>البحث عن الموارد التي تريد</v>
+        <v>شجع</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>disney.update_now</v>
+        <v>disney.responder</v>
       </c>
       <c r="B17" t="str">
-        <v>立即更新</v>
+        <v>抢答</v>
       </c>
       <c r="C17" t="str">
-        <v>Update now</v>
+        <v>Answer</v>
       </c>
       <c r="D17" t="str">
-        <v>立即更新</v>
+        <v>搶答</v>
       </c>
       <c r="E17" t="str">
-        <v>تحديث فوري</v>
+        <v>الرد السريع</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>disney.encourage_desc</v>
+        <v>disney.fl_remark</v>
       </c>
       <c r="B18" t="str">
-        <v>您可以在：放映态下 &gt; 互动工具 &gt; 表扬鼓励 &gt; 表扬工具 中进行体验</v>
+        <v>复仇者联盟邀你组队竞赛啦~</v>
       </c>
       <c r="C18" t="str">
-        <v>You can experience it in: Show &gt; Interactive Tools &gt; praise and encouragement &gt; praise tool</v>
+        <v>Avengers invite you to team up~</v>
       </c>
       <c r="D18" t="str">
-        <v>您可以在：放映態下 &gt; 互動工具 &gt; 表揚鼓勵 &gt; 表揚工具 中進行體驗</v>
+        <v>復仇者聯盟邀妳組隊競賽啦~</v>
       </c>
       <c r="E18" t="str">
-        <v>يمكنك تجربة مع أدوات تفاعلية في حالة العرض</v>
+        <v>دوري المنتقمون يدعوك إلى تنظيم المسابقة</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>disney.team_competition</v>
+        <v>disney.ml_remark</v>
       </c>
       <c r="B19" t="str">
-        <v>团队竞赛</v>
+        <v>可汗大点兵~抽学生课堂互动！</v>
       </c>
       <c r="C19" t="str">
-        <v>Team Competition</v>
+        <v>Khan big spot soldier ~ smoke student classroom interaction!</v>
       </c>
       <c r="D19" t="str">
-        <v>團隊競賽</v>
+        <v>可汗大點兵~抽學生課堂互動！</v>
       </c>
       <c r="E19" t="str">
-        <v>فريق المنافسة</v>
+        <v>ما هو نوع من التفاعل الصفي ؟</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>disney.random_rollcall</v>
+        <v>disney.bx_remark</v>
       </c>
       <c r="B20" t="str">
-        <v>随机点名</v>
+        <v>放映态下&gt;互动工具&gt;表扬</v>
       </c>
       <c r="C20" t="str">
-        <v>Random Roll Call</v>
+        <v>Show &gt; Interactive Tools &gt; praise</v>
       </c>
       <c r="D20" t="str">
-        <v>隨機點名</v>
+        <v>放映態下&gt;互動工具&gt;表揚</v>
       </c>
       <c r="E20" t="str">
-        <v>اسم عشوائي</v>
+        <v>أداة تفاعلية في حالة العرض</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>disney.class_encourage</v>
+        <v>disney.mq_remark</v>
       </c>
       <c r="B21" t="str">
-        <v>课堂鼓励</v>
+        <v>与赛车手米奇一起抢答吧~</v>
       </c>
       <c r="C21" t="str">
-        <v>Classroom Encouragement</v>
+        <v>Join race car driver Mickey in the contest~</v>
       </c>
       <c r="D21" t="str">
-        <v>課堂鼓勵</v>
+        <v>與賽車手米奇壹起搶答吧~</v>
       </c>
       <c r="E21" t="str">
-        <v>تشجيع الفصول الدراسية</v>
+        <v>مع ميكي ، متسابق</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>disney.disneyResponder</v>
+        <v>disney.use_now</v>
       </c>
       <c r="B22" t="str">
-        <v>抢答工具</v>
+        <v>立即使用</v>
       </c>
       <c r="C22" t="str">
-        <v>Answer Tool</v>
+        <v>Use it now</v>
       </c>
       <c r="D22" t="str">
-        <v>搶答工具</v>
+        <v>立即使用</v>
       </c>
       <c r="E22" t="str">
-        <v>أداة الرد</v>
+        <v>استخدام فوري</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>disney.encourage</v>
+        <v>disney.login_use</v>
       </c>
       <c r="B23" t="str">
-        <v>鼓励</v>
+        <v>登录后即可使用</v>
       </c>
       <c r="C23" t="str">
-        <v>Encouragement</v>
+        <v>Please log in</v>
       </c>
       <c r="D23" t="str">
-        <v>鼓勵</v>
+        <v>登錄後即可使用</v>
       </c>
       <c r="E23" t="str">
-        <v>شجع</v>
+        <v>بعد تسجيل الدخول يمكنك استخدام</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>disney.responder</v>
+        <v>disney.resource</v>
       </c>
       <c r="B24" t="str">
-        <v>抢答</v>
+        <v>资源类型</v>
       </c>
       <c r="C24" t="str">
-        <v>Answer</v>
+        <v>Resource Type</v>
       </c>
       <c r="D24" t="str">
-        <v>搶答</v>
+        <v>資源類型</v>
       </c>
       <c r="E24" t="str">
-        <v>الرد السريع</v>
+        <v>أنواع الموارد</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>disney.fl_remark</v>
+        <v>disney.current</v>
       </c>
       <c r="B25" t="str">
-        <v>复仇者联盟邀你组队竞赛啦~</v>
+        <v>当前</v>
       </c>
       <c r="C25" t="str">
-        <v>Avengers invite you to team up~</v>
+        <v>Current</v>
       </c>
       <c r="D25" t="str">
-        <v>復仇者聯盟邀妳組隊競賽啦~</v>
+        <v>當前</v>
       </c>
       <c r="E25" t="str">
-        <v>دوري المنتقمون يدعوك إلى تنظيم المسابقة</v>
+        <v>حالي</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>disney.ml_remark</v>
+        <v>disney.ipzone</v>
       </c>
       <c r="B26" t="str">
-        <v>可汗大点兵~抽学生课堂互动！</v>
+        <v>迪士尼专区</v>
       </c>
       <c r="C26" t="str">
-        <v>Khan big spot soldier ~ smoke student classroom interaction!</v>
+        <v>Disney Zone</v>
       </c>
       <c r="D26" t="str">
-        <v>可汗大點兵~抽學生課堂互動！</v>
+        <v>迪士尼專區</v>
       </c>
       <c r="E26" t="str">
-        <v>ما هو نوع من التفاعل الصفي ؟</v>
+        <v>ديزني لاند</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>disney.bx_remark</v>
+        <v>globalSearch.exercise</v>
       </c>
       <c r="B27" t="str">
-        <v>放映态下&gt;互动工具&gt;表扬</v>
+        <v>习题/试卷</v>
       </c>
       <c r="C27" t="str">
-        <v>Show &gt; Interactive Tools &gt; praise</v>
+        <v>Exercises &amp; Test Papers</v>
       </c>
       <c r="D27" t="str">
-        <v>放映態下&gt;互動工具&gt;表揚</v>
+        <v>習題/試卷</v>
       </c>
       <c r="E27" t="str">
-        <v>أداة تفاعلية في حالة العرض</v>
+        <v>رياضي</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>disney.mq_remark</v>
+        <v>authorWorks.activity_homepage</v>
       </c>
       <c r="B28" t="str">
-        <v>与赛车手米奇一起抢答吧~</v>
+        <v>活动首页</v>
       </c>
       <c r="C28" t="str">
-        <v>Join race car driver Mickey in the contest~</v>
+        <v>home</v>
       </c>
       <c r="D28" t="str">
-        <v>與賽車手米奇壹起搶答吧~</v>
+        <v>活動首頁</v>
       </c>
       <c r="E28" t="str">
-        <v>مع ميكي ، متسابق</v>
+        <v>الصفحة الرئيسية النشطة</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>disney.use_now</v>
+        <v>authorWorks.my_works</v>
       </c>
       <c r="B29" t="str">
-        <v>立即使用</v>
+        <v>我的参赛作品</v>
       </c>
       <c r="C29" t="str">
-        <v>Use it now</v>
+        <v>My entries</v>
       </c>
       <c r="D29" t="str">
-        <v>立即使用</v>
+        <v>我的參賽作品</v>
       </c>
       <c r="E29" t="str">
-        <v>استخدام فوري</v>
+        <v>بلدي يعمل</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>disney.login_use</v>
+        <v>authorWorks.my_selected_works</v>
       </c>
       <c r="B30" t="str">
-        <v>登录后即可使用</v>
+        <v>我的入选作品集</v>
       </c>
       <c r="C30" t="str">
-        <v>Please log in</v>
+        <v>Selected works</v>
       </c>
       <c r="D30" t="str">
-        <v>登錄後即可使用</v>
+        <v>我的入選作品集</v>
       </c>
       <c r="E30" t="str">
-        <v>بعد تسجيل الدخول يمكنك استخدام</v>
+        <v>بلدي مجموعة مختارة</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>disney.resource</v>
+        <v>authorWorks.selected_works</v>
       </c>
       <c r="B31" t="str">
-        <v>资源类型</v>
+        <v>入选作品</v>
       </c>
       <c r="C31" t="str">
-        <v>Resource Type</v>
+        <v>selected</v>
       </c>
       <c r="D31" t="str">
-        <v>資源類型</v>
+        <v>入選作品</v>
       </c>
       <c r="E31" t="str">
-        <v>أنواع الموارد</v>
+        <v>أعمال مختارة</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>disney.current</v>
+        <v>authorWorks.award_works</v>
       </c>
       <c r="B32" t="str">
-        <v>当前</v>
+        <v>获奖作品</v>
       </c>
       <c r="C32" t="str">
-        <v>Current</v>
+        <v>prize</v>
       </c>
       <c r="D32" t="str">
-        <v>當前</v>
+        <v>獲獎作品</v>
       </c>
       <c r="E32" t="str">
-        <v>حالي</v>
+        <v>الحائز على جائزة العمل</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>disney.ipzone</v>
+        <v>authorWorks.praise</v>
       </c>
       <c r="B33" t="str">
-        <v>迪士尼专区</v>
+        <v>收获赞</v>
       </c>
       <c r="C33" t="str">
-        <v>Disney Zone</v>
+        <v>praise</v>
       </c>
       <c r="D33" t="str">
-        <v>迪士尼專區</v>
+        <v>收穫贊</v>
       </c>
       <c r="E33" t="str">
-        <v>ديزني لاند</v>
+        <v>حصاد الحمد</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>authorWorks.activity_homepage</v>
+        <v>authorWorks.used</v>
       </c>
       <c r="B34" t="str">
-        <v>活动首页</v>
+        <v>被使用</v>
       </c>
       <c r="C34" t="str">
-        <v>home</v>
+        <v>used</v>
       </c>
       <c r="D34" t="str">
-        <v>活動首頁</v>
+        <v>被使用</v>
       </c>
       <c r="E34" t="str">
-        <v>الصفحة الرئيسية النشطة</v>
+        <v>تستخدم</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>authorWorks.my_works</v>
+        <v>authorWorks.no_more</v>
       </c>
       <c r="B35" t="str">
-        <v>我的参赛作品</v>
+        <v>没有更多了</v>
       </c>
       <c r="C35" t="str">
-        <v>My entries</v>
+        <v>no more</v>
       </c>
       <c r="D35" t="str">
-        <v>我的參賽作品</v>
+        <v>沒有更多了</v>
       </c>
       <c r="E35" t="str">
-        <v>بلدي يعمل</v>
+        <v>لا أكثر</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>authorWorks.my_selected_works</v>
+        <v>authorWorks.take_part_in</v>
       </c>
       <c r="B36" t="str">
-        <v>我的入选作品集</v>
+        <v>加入作品征集大赛，共建教学资源库</v>
       </c>
       <c r="C36" t="str">
-        <v>Selected works</v>
+        <v>Join the competition of collecting works and build a teaching resource library</v>
       </c>
       <c r="D36" t="str">
-        <v>我的入選作品集</v>
+        <v>加入作品徵集大賽，共建教學資源庫</v>
       </c>
       <c r="E36" t="str">
-        <v>بلدي مجموعة مختارة</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>authorWorks.selected_works</v>
-      </c>
-      <c r="B37" t="str">
-        <v>入选作品</v>
-      </c>
-      <c r="C37" t="str">
-        <v>selected</v>
-      </c>
-      <c r="D37" t="str">
-        <v>入選作品</v>
-      </c>
-      <c r="E37" t="str">
-        <v>أعمال مختارة</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>authorWorks.award_works</v>
-      </c>
-      <c r="B38" t="str">
-        <v>获奖作品</v>
-      </c>
-      <c r="C38" t="str">
-        <v>prize</v>
-      </c>
-      <c r="D38" t="str">
-        <v>獲獎作品</v>
-      </c>
-      <c r="E38" t="str">
-        <v>الحائز على جائزة العمل</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>authorWorks.praise</v>
-      </c>
-      <c r="B39" t="str">
-        <v>收获赞</v>
-      </c>
-      <c r="C39" t="str">
-        <v>praise</v>
-      </c>
-      <c r="D39" t="str">
-        <v>收穫贊</v>
-      </c>
-      <c r="E39" t="str">
-        <v>حصاد الحمد</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>authorWorks.used</v>
-      </c>
-      <c r="B40" t="str">
-        <v>被使用</v>
-      </c>
-      <c r="C40" t="str">
-        <v>used</v>
-      </c>
-      <c r="D40" t="str">
-        <v>被使用</v>
-      </c>
-      <c r="E40" t="str">
-        <v>تستخدم</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>authorWorks.no_more</v>
-      </c>
-      <c r="B41" t="str">
-        <v>没有更多了</v>
-      </c>
-      <c r="C41" t="str">
-        <v>no more</v>
-      </c>
-      <c r="D41" t="str">
-        <v>沒有更多了</v>
-      </c>
-      <c r="E41" t="str">
-        <v>لا أكثر</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>authorWorks.take_part_in</v>
-      </c>
-      <c r="B42" t="str">
-        <v>加入作品征集大赛，共建教学资源库</v>
-      </c>
-      <c r="C42" t="str">
-        <v>Join the competition of collecting works and build a teaching resource library</v>
-      </c>
-      <c r="D42" t="str">
-        <v>加入作品徵集大賽，共建教學資源庫</v>
-      </c>
-      <c r="E42" t="str">
         <v>الانضمام إلى مسابقة جمع الأعمال ، وبناء قاعدة بيانات الموارد التعليمية</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E42"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E36"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/exports/B框-ppt-resource-container-web.xlsx
+++ b/exports/B框-ppt-resource-container-web.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,568 +433,721 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>disney.authorize_video</v>
+        <v>className.hot</v>
       </c>
       <c r="B4" t="str">
-        <v>英语视频</v>
+        <v>frameB-com-list__img-hot-cn</v>
       </c>
       <c r="C4" t="str">
-        <v>English video</v>
+        <v>frameB-com-list__img-hot</v>
       </c>
       <c r="D4" t="str">
-        <v>英語視頻</v>
+        <v>frameB-com-list__img-hot</v>
       </c>
       <c r="E4" t="str">
-        <v>فيديو عربي</v>
+        <v>frameB-com-list__img-hot</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>disney.skin_center</v>
+        <v>className.boutique</v>
       </c>
       <c r="B5" t="str">
-        <v>皮肤中心</v>
+        <v>frameB-com-list__img-boutique-cn</v>
       </c>
       <c r="C5" t="str">
-        <v>Skin Center</v>
+        <v>frameB-com-list__img-boutique</v>
       </c>
       <c r="D5" t="str">
-        <v>皮膚中心</v>
+        <v>frameB-com-list__img-boutique</v>
       </c>
       <c r="E5" t="str">
-        <v>مركز الجلد</v>
+        <v>frameB-com-list__img-boutique</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>disney.more_theme</v>
+        <v>className.feature</v>
       </c>
       <c r="B6" t="str">
-        <v>更多主题</v>
+        <v>frameB-com-list__img-feature-cn</v>
       </c>
       <c r="C6" t="str">
-        <v>More</v>
+        <v>frameB-com-list__img-feature</v>
       </c>
       <c r="D6" t="str">
-        <v>更多主題</v>
+        <v>frameB-com-list__img-feature</v>
       </c>
       <c r="E6" t="str">
-        <v>المزيد من المواضيع</v>
+        <v>frameB-com-list__img-feature</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>disney.ipzone_placeholder</v>
+        <v>className.news</v>
       </c>
       <c r="B7" t="str">
-        <v>搜索你想要的资源</v>
+        <v>frameB-com-list__img-new-cn</v>
       </c>
       <c r="C7" t="str">
-        <v>Search for resources you want</v>
+        <v>frameB-com-list__img-new</v>
       </c>
       <c r="D7" t="str">
-        <v>搜索你想要的資源</v>
+        <v>frameB-com-list__img-new</v>
       </c>
       <c r="E7" t="str">
-        <v>البحث عن الموارد التي تريد</v>
+        <v>frameB-com-list__img-new</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>disney.tips</v>
+        <v>className.hard</v>
       </c>
       <c r="B8" t="str">
-        <v>温馨提示</v>
+        <v>icon-hard-cn</v>
       </c>
       <c r="C8" t="str">
-        <v>tips</v>
+        <v>icon-hard</v>
       </c>
       <c r="D8" t="str">
-        <v>溫馨提示</v>
+        <v>icon-hard</v>
       </c>
       <c r="E8" t="str">
-        <v>نصائح</v>
+        <v>icon-hard</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>disney.tips_desc</v>
+        <v>audioItem.hot</v>
       </c>
       <c r="B9" t="str">
-        <v>您的版本过旧，无法插入最新资源，快去更新后体验吧~</v>
+        <v>audio-container__hot-cn</v>
       </c>
       <c r="C9" t="str">
-        <v>Your version is too old to insert the latest resources. Go to update and experience it~</v>
+        <v>audio-container__hot</v>
       </c>
       <c r="D9" t="str">
-        <v>您的版本過舊，無法插入最新資源，快去更新後體驗吧~</v>
+        <v>audio-container__hot</v>
       </c>
       <c r="E9" t="str">
-        <v>أنت تستخدم إصدارًا منخفضًا جدًا. يُرجى ترقية الإصدار قبل استخدامه!</v>
+        <v>audio-container__hot</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>disney.update_now</v>
+        <v>audioItem.boutique</v>
       </c>
       <c r="B10" t="str">
-        <v>立即更新</v>
+        <v>audio-container__boutique-cn</v>
       </c>
       <c r="C10" t="str">
-        <v>Update now</v>
+        <v>audio-container__boutique</v>
       </c>
       <c r="D10" t="str">
-        <v>立即更新</v>
+        <v>audio-container__boutique</v>
       </c>
       <c r="E10" t="str">
-        <v>تحديث فوري</v>
+        <v>audio-container__boutique</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>disney.encourage_desc</v>
+        <v>audioItem.feature</v>
       </c>
       <c r="B11" t="str">
-        <v>您可以在：放映态下 &gt; 互动工具 &gt; 表扬鼓励 &gt; 表扬工具 中进行体验</v>
+        <v>audio-container__feature-cn</v>
       </c>
       <c r="C11" t="str">
-        <v>You can experience it in: Show &gt; Interactive Tools &gt; praise and encouragement &gt; praise tool</v>
+        <v>audio-container__feature</v>
       </c>
       <c r="D11" t="str">
-        <v>您可以在：放映態下 &gt; 互動工具 &gt; 表揚鼓勵 &gt; 表揚工具 中進行體驗</v>
+        <v>audio-container__feature</v>
       </c>
       <c r="E11" t="str">
-        <v>يمكنك تجربة مع أدوات تفاعلية في حالة العرض</v>
+        <v>audio-container__feature</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>disney.team_competition</v>
+        <v>audioItem.news</v>
       </c>
       <c r="B12" t="str">
-        <v>团队竞赛</v>
+        <v>audio-container__new-cn</v>
       </c>
       <c r="C12" t="str">
-        <v>Team Competition</v>
+        <v>audio-container__new</v>
       </c>
       <c r="D12" t="str">
-        <v>團隊競賽</v>
+        <v>audio-container__new</v>
       </c>
       <c r="E12" t="str">
-        <v>فريق المنافسة</v>
+        <v>audio-container__new</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>disney.random_rollcall</v>
+        <v>disney.authorize_video</v>
       </c>
       <c r="B13" t="str">
-        <v>随机点名</v>
+        <v>英语视频</v>
       </c>
       <c r="C13" t="str">
-        <v>Random Roll Call</v>
+        <v>English video</v>
       </c>
       <c r="D13" t="str">
-        <v>隨機點名</v>
+        <v>英語視頻</v>
       </c>
       <c r="E13" t="str">
-        <v>اسم عشوائي</v>
+        <v>فيديو عربي</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>disney.class_encourage</v>
+        <v>disney.skin_center</v>
       </c>
       <c r="B14" t="str">
-        <v>课堂鼓励</v>
+        <v>皮肤中心</v>
       </c>
       <c r="C14" t="str">
-        <v>Classroom Encouragement</v>
+        <v>Skin Center</v>
       </c>
       <c r="D14" t="str">
-        <v>課堂鼓勵</v>
+        <v>皮膚中心</v>
       </c>
       <c r="E14" t="str">
-        <v>تشجيع الفصول الدراسية</v>
+        <v>مركز الجلد</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>disney.disneyResponder</v>
+        <v>disney.more_theme</v>
       </c>
       <c r="B15" t="str">
-        <v>抢答工具</v>
+        <v>更多主题</v>
       </c>
       <c r="C15" t="str">
-        <v>Answer Tool</v>
+        <v>More</v>
       </c>
       <c r="D15" t="str">
-        <v>搶答工具</v>
+        <v>更多主題</v>
       </c>
       <c r="E15" t="str">
-        <v>أداة الرد</v>
+        <v>المزيد من المواضيع</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>disney.encourage</v>
+        <v>disney.ipzone_placeholder</v>
       </c>
       <c r="B16" t="str">
-        <v>鼓励</v>
+        <v>搜索你想要的资源</v>
       </c>
       <c r="C16" t="str">
-        <v>Encouragement</v>
+        <v>Search for resources you want</v>
       </c>
       <c r="D16" t="str">
-        <v>鼓勵</v>
+        <v>搜索你想要的資源</v>
       </c>
       <c r="E16" t="str">
-        <v>شجع</v>
+        <v>البحث عن الموارد التي تريد</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>disney.responder</v>
+        <v>disney.tips</v>
       </c>
       <c r="B17" t="str">
-        <v>抢答</v>
+        <v>温馨提示</v>
       </c>
       <c r="C17" t="str">
-        <v>Answer</v>
+        <v>tips</v>
       </c>
       <c r="D17" t="str">
-        <v>搶答</v>
+        <v>溫馨提示</v>
       </c>
       <c r="E17" t="str">
-        <v>الرد السريع</v>
+        <v>نصائح</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>disney.fl_remark</v>
+        <v>disney.tips_desc</v>
       </c>
       <c r="B18" t="str">
-        <v>复仇者联盟邀你组队竞赛啦~</v>
+        <v>您的版本过旧，无法插入最新资源，快去更新后体验吧~</v>
       </c>
       <c r="C18" t="str">
-        <v>Avengers invite you to team up~</v>
+        <v>Your version is too old to insert the latest resources. Go to update and experience it~</v>
       </c>
       <c r="D18" t="str">
-        <v>復仇者聯盟邀妳組隊競賽啦~</v>
+        <v>您的版本過舊，無法插入最新資源，快去更新後體驗吧~</v>
       </c>
       <c r="E18" t="str">
-        <v>دوري المنتقمون يدعوك إلى تنظيم المسابقة</v>
+        <v>أنت تستخدم إصدارًا منخفضًا جدًا. يُرجى ترقية الإصدار قبل استخدامه!</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>disney.ml_remark</v>
+        <v>disney.update_now</v>
       </c>
       <c r="B19" t="str">
-        <v>可汗大点兵~抽学生课堂互动！</v>
+        <v>立即更新</v>
       </c>
       <c r="C19" t="str">
-        <v>Khan big spot soldier ~ smoke student classroom interaction!</v>
+        <v>Update now</v>
       </c>
       <c r="D19" t="str">
-        <v>可汗大點兵~抽學生課堂互動！</v>
+        <v>立即更新</v>
       </c>
       <c r="E19" t="str">
-        <v>ما هو نوع من التفاعل الصفي ؟</v>
+        <v>تحديث فوري</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>disney.bx_remark</v>
+        <v>disney.encourage_desc</v>
       </c>
       <c r="B20" t="str">
-        <v>放映态下&gt;互动工具&gt;表扬</v>
+        <v>您可以在：放映态下 &gt; 互动工具 &gt; 表扬鼓励 &gt; 表扬工具 中进行体验</v>
       </c>
       <c r="C20" t="str">
-        <v>Show &gt; Interactive Tools &gt; praise</v>
+        <v>You can experience it in: Show &gt; Interactive Tools &gt; praise and encouragement &gt; praise tool</v>
       </c>
       <c r="D20" t="str">
-        <v>放映態下&gt;互動工具&gt;表揚</v>
+        <v>您可以在：放映態下 &gt; 互動工具 &gt; 表揚鼓勵 &gt; 表揚工具 中進行體驗</v>
       </c>
       <c r="E20" t="str">
-        <v>أداة تفاعلية في حالة العرض</v>
+        <v>يمكنك تجربة مع أدوات تفاعلية في حالة العرض</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>disney.mq_remark</v>
+        <v>disney.team_competition</v>
       </c>
       <c r="B21" t="str">
-        <v>与赛车手米奇一起抢答吧~</v>
+        <v>团队竞赛</v>
       </c>
       <c r="C21" t="str">
-        <v>Join race car driver Mickey in the contest~</v>
+        <v>Team Competition</v>
       </c>
       <c r="D21" t="str">
-        <v>與賽車手米奇壹起搶答吧~</v>
+        <v>團隊競賽</v>
       </c>
       <c r="E21" t="str">
-        <v>مع ميكي ، متسابق</v>
+        <v>فريق المنافسة</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>disney.use_now</v>
+        <v>disney.random_rollcall</v>
       </c>
       <c r="B22" t="str">
-        <v>立即使用</v>
+        <v>随机点名</v>
       </c>
       <c r="C22" t="str">
-        <v>Use it now</v>
+        <v>Random Roll Call</v>
       </c>
       <c r="D22" t="str">
-        <v>立即使用</v>
+        <v>隨機點名</v>
       </c>
       <c r="E22" t="str">
-        <v>استخدام فوري</v>
+        <v>اسم عشوائي</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>disney.login_use</v>
+        <v>disney.class_encourage</v>
       </c>
       <c r="B23" t="str">
-        <v>登录后即可使用</v>
+        <v>课堂鼓励</v>
       </c>
       <c r="C23" t="str">
-        <v>Please log in</v>
+        <v>Classroom Encouragement</v>
       </c>
       <c r="D23" t="str">
-        <v>登錄後即可使用</v>
+        <v>課堂鼓勵</v>
       </c>
       <c r="E23" t="str">
-        <v>بعد تسجيل الدخول يمكنك استخدام</v>
+        <v>تشجيع الفصول الدراسية</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>disney.resource</v>
+        <v>disney.disneyResponder</v>
       </c>
       <c r="B24" t="str">
-        <v>资源类型</v>
+        <v>抢答工具</v>
       </c>
       <c r="C24" t="str">
-        <v>Resource Type</v>
+        <v>Answer Tool</v>
       </c>
       <c r="D24" t="str">
-        <v>資源類型</v>
+        <v>搶答工具</v>
       </c>
       <c r="E24" t="str">
-        <v>أنواع الموارد</v>
+        <v>أداة الرد</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>disney.current</v>
+        <v>disney.encourage</v>
       </c>
       <c r="B25" t="str">
-        <v>当前</v>
+        <v>鼓励</v>
       </c>
       <c r="C25" t="str">
-        <v>Current</v>
+        <v>Encouragement</v>
       </c>
       <c r="D25" t="str">
-        <v>當前</v>
+        <v>鼓勵</v>
       </c>
       <c r="E25" t="str">
-        <v>حالي</v>
+        <v>شجع</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>disney.ipzone</v>
+        <v>disney.responder</v>
       </c>
       <c r="B26" t="str">
-        <v>迪士尼专区</v>
+        <v>抢答</v>
       </c>
       <c r="C26" t="str">
-        <v>Disney Zone</v>
+        <v>Answer</v>
       </c>
       <c r="D26" t="str">
-        <v>迪士尼專區</v>
+        <v>搶答</v>
       </c>
       <c r="E26" t="str">
-        <v>ديزني لاند</v>
+        <v>الرد السريع</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>globalSearch.exercise</v>
+        <v>disney.fl_remark</v>
       </c>
       <c r="B27" t="str">
-        <v>习题/试卷</v>
+        <v>复仇者联盟邀你组队竞赛啦~</v>
       </c>
       <c r="C27" t="str">
-        <v>Exercises &amp; Test Papers</v>
+        <v>Avengers invite you to team up~</v>
       </c>
       <c r="D27" t="str">
-        <v>習題/試卷</v>
+        <v>復仇者聯盟邀妳組隊競賽啦~</v>
       </c>
       <c r="E27" t="str">
-        <v>رياضي</v>
+        <v>دوري المنتقمون يدعوك إلى تنظيم المسابقة</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>authorWorks.activity_homepage</v>
+        <v>disney.ml_remark</v>
       </c>
       <c r="B28" t="str">
-        <v>活动首页</v>
+        <v>可汗大点兵~抽学生课堂互动！</v>
       </c>
       <c r="C28" t="str">
-        <v>home</v>
+        <v>Khan big spot soldier ~ smoke student classroom interaction!</v>
       </c>
       <c r="D28" t="str">
-        <v>活動首頁</v>
+        <v>可汗大點兵~抽學生課堂互動！</v>
       </c>
       <c r="E28" t="str">
-        <v>الصفحة الرئيسية النشطة</v>
+        <v>ما هو نوع من التفاعل الصفي ؟</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>authorWorks.my_works</v>
+        <v>disney.bx_remark</v>
       </c>
       <c r="B29" t="str">
-        <v>我的参赛作品</v>
+        <v>放映态下&gt;互动工具&gt;表扬</v>
       </c>
       <c r="C29" t="str">
-        <v>My entries</v>
+        <v>Show &gt; Interactive Tools &gt; praise</v>
       </c>
       <c r="D29" t="str">
-        <v>我的參賽作品</v>
+        <v>放映態下&gt;互動工具&gt;表揚</v>
       </c>
       <c r="E29" t="str">
-        <v>بلدي يعمل</v>
+        <v>أداة تفاعلية في حالة العرض</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>authorWorks.my_selected_works</v>
+        <v>disney.mq_remark</v>
       </c>
       <c r="B30" t="str">
-        <v>我的入选作品集</v>
+        <v>与赛车手米奇一起抢答吧~</v>
       </c>
       <c r="C30" t="str">
-        <v>Selected works</v>
+        <v>Join race car driver Mickey in the contest~</v>
       </c>
       <c r="D30" t="str">
-        <v>我的入選作品集</v>
+        <v>與賽車手米奇壹起搶答吧~</v>
       </c>
       <c r="E30" t="str">
-        <v>بلدي مجموعة مختارة</v>
+        <v>مع ميكي ، متسابق</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>authorWorks.selected_works</v>
+        <v>disney.use_now</v>
       </c>
       <c r="B31" t="str">
-        <v>入选作品</v>
+        <v>立即使用</v>
       </c>
       <c r="C31" t="str">
-        <v>selected</v>
+        <v>Use it now</v>
       </c>
       <c r="D31" t="str">
-        <v>入選作品</v>
+        <v>立即使用</v>
       </c>
       <c r="E31" t="str">
-        <v>أعمال مختارة</v>
+        <v>استخدام فوري</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>authorWorks.award_works</v>
+        <v>disney.login_use</v>
       </c>
       <c r="B32" t="str">
-        <v>获奖作品</v>
+        <v>登录后即可使用</v>
       </c>
       <c r="C32" t="str">
-        <v>prize</v>
+        <v>Please log in</v>
       </c>
       <c r="D32" t="str">
-        <v>獲獎作品</v>
+        <v>登錄後即可使用</v>
       </c>
       <c r="E32" t="str">
-        <v>الحائز على جائزة العمل</v>
+        <v>بعد تسجيل الدخول يمكنك استخدام</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>authorWorks.praise</v>
+        <v>disney.resource</v>
       </c>
       <c r="B33" t="str">
-        <v>收获赞</v>
+        <v>资源类型</v>
       </c>
       <c r="C33" t="str">
-        <v>praise</v>
+        <v>Resource Type</v>
       </c>
       <c r="D33" t="str">
-        <v>收穫贊</v>
+        <v>資源類型</v>
       </c>
       <c r="E33" t="str">
-        <v>حصاد الحمد</v>
+        <v>أنواع الموارد</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>authorWorks.used</v>
+        <v>disney.current</v>
       </c>
       <c r="B34" t="str">
-        <v>被使用</v>
+        <v>当前</v>
       </c>
       <c r="C34" t="str">
-        <v>used</v>
+        <v>Current</v>
       </c>
       <c r="D34" t="str">
-        <v>被使用</v>
+        <v>當前</v>
       </c>
       <c r="E34" t="str">
-        <v>تستخدم</v>
+        <v>حالي</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>authorWorks.no_more</v>
+        <v>disney.ipzone</v>
       </c>
       <c r="B35" t="str">
-        <v>没有更多了</v>
+        <v>迪士尼专区</v>
       </c>
       <c r="C35" t="str">
-        <v>no more</v>
+        <v>Disney Zone</v>
       </c>
       <c r="D35" t="str">
-        <v>沒有更多了</v>
+        <v>迪士尼專區</v>
       </c>
       <c r="E35" t="str">
-        <v>لا أكثر</v>
+        <v>ديزني لاند</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
+        <v>globalSearch.exercise</v>
+      </c>
+      <c r="B36" t="str">
+        <v>习题/试卷</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Exercises &amp; Test Papers</v>
+      </c>
+      <c r="D36" t="str">
+        <v>習題/試卷</v>
+      </c>
+      <c r="E36" t="str">
+        <v>رياضي</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>authorWorks.activity_homepage</v>
+      </c>
+      <c r="B37" t="str">
+        <v>活动首页</v>
+      </c>
+      <c r="C37" t="str">
+        <v>home</v>
+      </c>
+      <c r="D37" t="str">
+        <v>活動首頁</v>
+      </c>
+      <c r="E37" t="str">
+        <v>الصفحة الرئيسية النشطة</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>authorWorks.my_works</v>
+      </c>
+      <c r="B38" t="str">
+        <v>我的参赛作品</v>
+      </c>
+      <c r="C38" t="str">
+        <v>My entries</v>
+      </c>
+      <c r="D38" t="str">
+        <v>我的參賽作品</v>
+      </c>
+      <c r="E38" t="str">
+        <v>بلدي يعمل</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>authorWorks.my_selected_works</v>
+      </c>
+      <c r="B39" t="str">
+        <v>我的入选作品集</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Selected works</v>
+      </c>
+      <c r="D39" t="str">
+        <v>我的入選作品集</v>
+      </c>
+      <c r="E39" t="str">
+        <v>بلدي مجموعة مختارة</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>authorWorks.selected_works</v>
+      </c>
+      <c r="B40" t="str">
+        <v>入选作品</v>
+      </c>
+      <c r="C40" t="str">
+        <v>selected</v>
+      </c>
+      <c r="D40" t="str">
+        <v>入選作品</v>
+      </c>
+      <c r="E40" t="str">
+        <v>أعمال مختارة</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>authorWorks.award_works</v>
+      </c>
+      <c r="B41" t="str">
+        <v>获奖作品</v>
+      </c>
+      <c r="C41" t="str">
+        <v>prize</v>
+      </c>
+      <c r="D41" t="str">
+        <v>獲獎作品</v>
+      </c>
+      <c r="E41" t="str">
+        <v>الحائز على جائزة العمل</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>authorWorks.praise</v>
+      </c>
+      <c r="B42" t="str">
+        <v>收获赞</v>
+      </c>
+      <c r="C42" t="str">
+        <v>praise</v>
+      </c>
+      <c r="D42" t="str">
+        <v>收穫贊</v>
+      </c>
+      <c r="E42" t="str">
+        <v>حصاد الحمد</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>authorWorks.used</v>
+      </c>
+      <c r="B43" t="str">
+        <v>被使用</v>
+      </c>
+      <c r="C43" t="str">
+        <v>used</v>
+      </c>
+      <c r="D43" t="str">
+        <v>被使用</v>
+      </c>
+      <c r="E43" t="str">
+        <v>تستخدم</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>authorWorks.no_more</v>
+      </c>
+      <c r="B44" t="str">
+        <v>没有更多了</v>
+      </c>
+      <c r="C44" t="str">
+        <v>no more</v>
+      </c>
+      <c r="D44" t="str">
+        <v>沒有更多了</v>
+      </c>
+      <c r="E44" t="str">
+        <v>لا أكثر</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
         <v>authorWorks.take_part_in</v>
       </c>
-      <c r="B36" t="str">
+      <c r="B45" t="str">
         <v>加入作品征集大赛，共建教学资源库</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C45" t="str">
         <v>Join the competition of collecting works and build a teaching resource library</v>
       </c>
-      <c r="D36" t="str">
+      <c r="D45" t="str">
         <v>加入作品徵集大賽，共建教學資源庫</v>
       </c>
-      <c r="E36" t="str">
+      <c r="E45" t="str">
         <v>الانضمام إلى مسابقة جمع الأعمال ، وبناء قاعدة بيانات الموارد التعليمية</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E36"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E45"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/exports/B框-ppt-resource-container-web.xlsx
+++ b/exports/B框-ppt-resource-container-web.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E319"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,755 +399,5413 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>common.resourceNotFound</v>
+        <v>common.0</v>
       </c>
       <c r="B2" t="str">
-        <v>没有查询到该资源</v>
+        <v>通用</v>
       </c>
       <c r="C2" t="str">
-        <v>The resource was not found</v>
+        <v>General</v>
       </c>
       <c r="D2" t="str">
-        <v>沒有查詢到該資源</v>
+        <v>通用</v>
       </c>
       <c r="E2" t="str">
-        <v>لم يتم العثور على المورد</v>
+        <v>أحكام عامة</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>common.previewNotSupported</v>
+        <v>common.1</v>
       </c>
       <c r="B3" t="str">
-        <v>该资源需要付费后才能预览哦~</v>
+        <v>物理</v>
       </c>
       <c r="C3" t="str">
-        <v>This resource needs to be paid before previewing~</v>
+        <v>Physical</v>
       </c>
       <c r="D3" t="str">
-        <v>該資源需要付費後才能預覽哦~</v>
+        <v>物理</v>
       </c>
       <c r="E3" t="str">
-        <v>يجب دفع هذا المورد قبل معاينة ~</v>
+        <v>المادية</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>className.hot</v>
+        <v>common.2</v>
       </c>
       <c r="B4" t="str">
-        <v>frameB-com-list__img-hot-cn</v>
+        <v>数学</v>
       </c>
       <c r="C4" t="str">
-        <v>frameB-com-list__img-hot</v>
+        <v>Mathematics</v>
       </c>
       <c r="D4" t="str">
-        <v>frameB-com-list__img-hot</v>
+        <v>數學</v>
       </c>
       <c r="E4" t="str">
-        <v>frameB-com-list__img-hot</v>
+        <v>رياضيا</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>className.boutique</v>
+        <v>common.3</v>
       </c>
       <c r="B5" t="str">
-        <v>frameB-com-list__img-boutique-cn</v>
+        <v>英语</v>
       </c>
       <c r="C5" t="str">
-        <v>frameB-com-list__img-boutique</v>
+        <v>English</v>
       </c>
       <c r="D5" t="str">
-        <v>frameB-com-list__img-boutique</v>
+        <v>英語</v>
       </c>
       <c r="E5" t="str">
-        <v>frameB-com-list__img-boutique</v>
+        <v>الإنجليزية ،</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>className.feature</v>
+        <v>common.4</v>
       </c>
       <c r="B6" t="str">
-        <v>frameB-com-list__img-feature-cn</v>
+        <v>语文</v>
       </c>
       <c r="C6" t="str">
-        <v>frameB-com-list__img-feature</v>
+        <v>Chinese</v>
       </c>
       <c r="D6" t="str">
-        <v>frameB-com-list__img-feature</v>
+        <v>語文</v>
       </c>
       <c r="E6" t="str">
-        <v>frameB-com-list__img-feature</v>
+        <v>الشعب الصيني</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>className.news</v>
+        <v>common.5</v>
       </c>
       <c r="B7" t="str">
-        <v>frameB-com-list__img-new-cn</v>
+        <v>地理</v>
       </c>
       <c r="C7" t="str">
-        <v>frameB-com-list__img-new</v>
+        <v>Geography</v>
       </c>
       <c r="D7" t="str">
-        <v>frameB-com-list__img-new</v>
+        <v>地理</v>
       </c>
       <c r="E7" t="str">
-        <v>frameB-com-list__img-new</v>
+        <v>جغرافي</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>className.hard</v>
+        <v>common.6</v>
       </c>
       <c r="B8" t="str">
-        <v>icon-hard-cn</v>
+        <v>历史</v>
       </c>
       <c r="C8" t="str">
-        <v>icon-hard</v>
+        <v>History</v>
       </c>
       <c r="D8" t="str">
-        <v>icon-hard</v>
+        <v>歷史</v>
       </c>
       <c r="E8" t="str">
-        <v>icon-hard</v>
+        <v>هیستوری</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>audioItem.hot</v>
+        <v>common.7</v>
       </c>
       <c r="B9" t="str">
-        <v>audio-container__hot-cn</v>
+        <v>生物</v>
       </c>
       <c r="C9" t="str">
-        <v>audio-container__hot</v>
+        <v>Biology</v>
       </c>
       <c r="D9" t="str">
-        <v>audio-container__hot</v>
+        <v>生物</v>
       </c>
       <c r="E9" t="str">
-        <v>audio-container__hot</v>
+        <v>كائن حي</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>audioItem.boutique</v>
+        <v>common.8</v>
       </c>
       <c r="B10" t="str">
-        <v>audio-container__boutique-cn</v>
+        <v>政治</v>
       </c>
       <c r="C10" t="str">
-        <v>audio-container__boutique</v>
+        <v>Politics</v>
       </c>
       <c r="D10" t="str">
-        <v>audio-container__boutique</v>
+        <v>政治</v>
       </c>
       <c r="E10" t="str">
-        <v>audio-container__boutique</v>
+        <v>سياسي</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>audioItem.feature</v>
+        <v>common.9</v>
       </c>
       <c r="B11" t="str">
-        <v>audio-container__feature-cn</v>
+        <v>化学</v>
       </c>
       <c r="C11" t="str">
-        <v>audio-container__feature</v>
+        <v>Chemistry</v>
       </c>
       <c r="D11" t="str">
-        <v>audio-container__feature</v>
+        <v>化學</v>
       </c>
       <c r="E11" t="str">
-        <v>audio-container__feature</v>
+        <v>كيميائى</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>audioItem.news</v>
+        <v>common.all</v>
       </c>
       <c r="B12" t="str">
-        <v>audio-container__new-cn</v>
+        <v>全部</v>
       </c>
       <c r="C12" t="str">
-        <v>audio-container__new</v>
+        <v>All</v>
       </c>
       <c r="D12" t="str">
-        <v>audio-container__new</v>
+        <v>全部</v>
       </c>
       <c r="E12" t="str">
-        <v>audio-container__new</v>
+        <v>كل</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>disney.authorize_video</v>
+        <v>common.open</v>
       </c>
       <c r="B13" t="str">
-        <v>英语视频</v>
+        <v>打开</v>
       </c>
       <c r="C13" t="str">
-        <v>English video</v>
+        <v>Open</v>
       </c>
       <c r="D13" t="str">
-        <v>英語視頻</v>
+        <v>開啟</v>
       </c>
       <c r="E13" t="str">
-        <v>فيديو عربي</v>
+        <v>فتح</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>disney.skin_center</v>
+        <v>common.preview</v>
       </c>
       <c r="B14" t="str">
-        <v>皮肤中心</v>
+        <v>预览</v>
       </c>
       <c r="C14" t="str">
-        <v>Skin Center</v>
+        <v>Preview</v>
       </c>
       <c r="D14" t="str">
-        <v>皮膚中心</v>
+        <v>預覽</v>
       </c>
       <c r="E14" t="str">
-        <v>مركز الجلد</v>
+        <v>معاينة</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>disney.more_theme</v>
+        <v>common.insert</v>
       </c>
       <c r="B15" t="str">
-        <v>更多主题</v>
+        <v>插入</v>
       </c>
       <c r="C15" t="str">
-        <v>More</v>
+        <v>Insert</v>
       </c>
       <c r="D15" t="str">
-        <v>更多主題</v>
+        <v>插入</v>
       </c>
       <c r="E15" t="str">
-        <v>المزيد من المواضيع</v>
+        <v>إدراج</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>disney.ipzone_placeholder</v>
+        <v>common.play</v>
       </c>
       <c r="B16" t="str">
-        <v>搜索你想要的资源</v>
+        <v>播放</v>
       </c>
       <c r="C16" t="str">
-        <v>Search for resources you want</v>
+        <v>Play</v>
       </c>
       <c r="D16" t="str">
-        <v>搜索你想要的資源</v>
+        <v>播放</v>
       </c>
       <c r="E16" t="str">
-        <v>البحث عن الموارد التي تريد</v>
+        <v>لعب</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>disney.tips</v>
+        <v>common.pause</v>
       </c>
       <c r="B17" t="str">
-        <v>温馨提示</v>
+        <v>暂停</v>
       </c>
       <c r="C17" t="str">
-        <v>tips</v>
+        <v>Pause</v>
       </c>
       <c r="D17" t="str">
-        <v>溫馨提示</v>
+        <v>暫停</v>
       </c>
       <c r="E17" t="str">
-        <v>نصائح</v>
+        <v>نفذ الوقت</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>disney.tips_desc</v>
+        <v>common.free</v>
       </c>
       <c r="B18" t="str">
-        <v>您的版本过旧，无法插入最新资源，快去更新后体验吧~</v>
+        <v>限免使用</v>
       </c>
       <c r="C18" t="str">
-        <v>Your version is too old to insert the latest resources. Go to update and experience it~</v>
+        <v>Trivialized</v>
       </c>
       <c r="D18" t="str">
-        <v>您的版本過舊，無法插入最新資源，快去更新後體驗吧~</v>
+        <v>限免使用</v>
       </c>
       <c r="E18" t="str">
-        <v>أنت تستخدم إصدارًا منخفضًا جدًا. يُرجى ترقية الإصدار قبل استخدامه!</v>
+        <v>تافهة</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>disney.update_now</v>
+        <v>common.freeTags</v>
       </c>
       <c r="B19" t="str">
-        <v>立即更新</v>
+        <v>限时免费</v>
       </c>
       <c r="C19" t="str">
-        <v>Update now</v>
+        <v>Trivialized</v>
       </c>
       <c r="D19" t="str">
-        <v>立即更新</v>
+        <v>限時免費</v>
       </c>
       <c r="E19" t="str">
-        <v>تحديث فوري</v>
+        <v>مجانا لفترة محدودة</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>disney.encourage_desc</v>
+        <v>common.priceCny</v>
       </c>
       <c r="B20" t="str">
-        <v>您可以在：放映态下 &gt; 互动工具 &gt; 表扬鼓励 &gt; 表扬工具 中进行体验</v>
+        <v>限时特惠</v>
       </c>
       <c r="C20" t="str">
-        <v>You can experience it in: Show &gt; Interactive Tools &gt; praise and encouragement &gt; praise tool</v>
+        <v>Limited use</v>
       </c>
       <c r="D20" t="str">
-        <v>您可以在：放映態下 &gt; 互動工具 &gt; 表揚鼓勵 &gt; 表揚工具 中進行體驗</v>
+        <v>限時特惠</v>
       </c>
       <c r="E20" t="str">
-        <v>يمكنك تجربة مع أدوات تفاعلية في حالة العرض</v>
+        <v>استخدام محدود</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>disney.team_competition</v>
+        <v>common.login</v>
       </c>
       <c r="B21" t="str">
-        <v>团队竞赛</v>
+        <v>登录使用</v>
       </c>
       <c r="C21" t="str">
-        <v>Team Competition</v>
+        <v>Login use</v>
       </c>
       <c r="D21" t="str">
-        <v>團隊競賽</v>
+        <v>登入使用</v>
       </c>
       <c r="E21" t="str">
-        <v>فريق المنافسة</v>
+        <v>تسجيل الدخول باستخدام</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>disney.random_rollcall</v>
+        <v>common.upload</v>
       </c>
       <c r="B22" t="str">
-        <v>随机点名</v>
+        <v>上传</v>
       </c>
       <c r="C22" t="str">
-        <v>Random Roll Call</v>
+        <v>Upload</v>
       </c>
       <c r="D22" t="str">
-        <v>隨機點名</v>
+        <v>上传</v>
       </c>
       <c r="E22" t="str">
-        <v>اسم عشوائي</v>
+        <v>تحميل</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>disney.class_encourage</v>
+        <v>common.apply</v>
       </c>
       <c r="B23" t="str">
-        <v>课堂鼓励</v>
+        <v>应用</v>
       </c>
       <c r="C23" t="str">
-        <v>Classroom Encouragement</v>
+        <v>Apply</v>
       </c>
       <c r="D23" t="str">
-        <v>課堂鼓勵</v>
+        <v>應用</v>
       </c>
       <c r="E23" t="str">
-        <v>تشجيع الفصول الدراسية</v>
+        <v>تطبيق</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>disney.disneyResponder</v>
+        <v>common.cart</v>
       </c>
       <c r="B24" t="str">
-        <v>抢答工具</v>
+        <v>资源篮</v>
       </c>
       <c r="C24" t="str">
-        <v>Answer Tool</v>
+        <v>Cart</v>
       </c>
       <c r="D24" t="str">
-        <v>搶答工具</v>
+        <v>資源籃</v>
       </c>
       <c r="E24" t="str">
-        <v>أداة الرد</v>
+        <v>عربة</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>disney.encourage</v>
+        <v>common.page</v>
       </c>
       <c r="B25" t="str">
-        <v>鼓励</v>
+        <v>页</v>
       </c>
       <c r="C25" t="str">
-        <v>Encouragement</v>
+        <v xml:space="preserve"> page(s)</v>
       </c>
       <c r="D25" t="str">
-        <v>鼓勵</v>
+        <v>頁</v>
       </c>
       <c r="E25" t="str">
-        <v>شجع</v>
+        <v>(صفحة (صفحات</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>disney.responder</v>
+        <v>common.viewMore</v>
       </c>
       <c r="B26" t="str">
-        <v>抢答</v>
+        <v>查看更多</v>
       </c>
       <c r="C26" t="str">
-        <v>Answer</v>
+        <v>View More</v>
       </c>
       <c r="D26" t="str">
-        <v>搶答</v>
+        <v>查看更多</v>
       </c>
       <c r="E26" t="str">
-        <v>الرد السريع</v>
+        <v>عرض المزيد</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>disney.fl_remark</v>
+        <v>common.viewAll</v>
       </c>
       <c r="B27" t="str">
-        <v>复仇者联盟邀你组队竞赛啦~</v>
+        <v>查看全部</v>
       </c>
       <c r="C27" t="str">
-        <v>Avengers invite you to team up~</v>
+        <v>View All</v>
       </c>
       <c r="D27" t="str">
-        <v>復仇者聯盟邀妳組隊競賽啦~</v>
+        <v>查看全部</v>
       </c>
       <c r="E27" t="str">
-        <v>دوري المنتقمون يدعوك إلى تنظيم المسابقة</v>
+        <v>عرض الجميع</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>disney.ml_remark</v>
+        <v>common.txt_001</v>
       </c>
       <c r="B28" t="str">
-        <v>可汗大点兵~抽学生课堂互动！</v>
+        <v>下载</v>
       </c>
       <c r="C28" t="str">
-        <v>Khan big spot soldier ~ smoke student classroom interaction!</v>
+        <v>Download</v>
       </c>
       <c r="D28" t="str">
-        <v>可汗大點兵~抽學生課堂互動！</v>
+        <v>下載</v>
       </c>
       <c r="E28" t="str">
-        <v>ما هو نوع من التفاعل الصفي ؟</v>
+        <v>تنزيل</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>disney.bx_remark</v>
+        <v>common.share</v>
       </c>
       <c r="B29" t="str">
-        <v>放映态下&gt;互动工具&gt;表扬</v>
+        <v>分享</v>
       </c>
       <c r="C29" t="str">
-        <v>Show &gt; Interactive Tools &gt; praise</v>
+        <v>Share</v>
       </c>
       <c r="D29" t="str">
-        <v>放映態下&gt;互動工具&gt;表揚</v>
+        <v>分享</v>
       </c>
       <c r="E29" t="str">
-        <v>أداة تفاعلية في حالة العرض</v>
+        <v>شارك</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>disney.mq_remark</v>
+        <v>common.recommendations</v>
       </c>
       <c r="B30" t="str">
-        <v>与赛车手米奇一起抢答吧~</v>
+        <v>你可能感兴趣</v>
       </c>
       <c r="C30" t="str">
-        <v>Join race car driver Mickey in the contest~</v>
+        <v>Recommendations</v>
       </c>
       <c r="D30" t="str">
-        <v>與賽車手米奇壹起搶答吧~</v>
+        <v>你可能感興趣</v>
       </c>
       <c r="E30" t="str">
-        <v>مع ميكي ، متسابق</v>
+        <v>توصيات</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>disney.use_now</v>
+        <v>common.selecteChapter</v>
       </c>
       <c r="B31" t="str">
-        <v>立即使用</v>
+        <v>去设置</v>
       </c>
       <c r="C31" t="str">
-        <v>Use it now</v>
+        <v>Select</v>
       </c>
       <c r="D31" t="str">
-        <v>立即使用</v>
+        <v>去設置</v>
       </c>
       <c r="E31" t="str">
-        <v>استخدام فوري</v>
+        <v>تحديد</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>disney.login_use</v>
+        <v>common.useTemplate</v>
       </c>
       <c r="B32" t="str">
-        <v>登录后即可使用</v>
+        <v>使用模板</v>
       </c>
       <c r="C32" t="str">
-        <v>Please log in</v>
+        <v>Use</v>
       </c>
       <c r="D32" t="str">
-        <v>登錄後即可使用</v>
+        <v>使用範本</v>
       </c>
       <c r="E32" t="str">
-        <v>بعد تسجيل الدخول يمكنك استخدام</v>
+        <v>إستعمال</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>disney.resource</v>
+        <v>common.buy</v>
       </c>
       <c r="B33" t="str">
-        <v>资源类型</v>
+        <v>购买</v>
       </c>
       <c r="C33" t="str">
-        <v>Resource Type</v>
+        <v>Buy</v>
       </c>
       <c r="D33" t="str">
-        <v>資源類型</v>
+        <v>購買</v>
       </c>
       <c r="E33" t="str">
-        <v>أنواع الموارد</v>
+        <v>شراء</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>disney.current</v>
+        <v>common.buyed</v>
       </c>
       <c r="B34" t="str">
-        <v>当前</v>
+        <v>已购买</v>
       </c>
       <c r="C34" t="str">
-        <v>Current</v>
+        <v>Purchased</v>
       </c>
       <c r="D34" t="str">
-        <v>當前</v>
+        <v>已購買</v>
       </c>
       <c r="E34" t="str">
-        <v>حالي</v>
+        <v>شراء</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>disney.ipzone</v>
+        <v>common.already_bought</v>
       </c>
       <c r="B35" t="str">
-        <v>迪士尼专区</v>
+        <v>该资源已购买</v>
       </c>
       <c r="C35" t="str">
-        <v>Disney Zone</v>
+        <v>The resource has been purchased</v>
       </c>
       <c r="D35" t="str">
-        <v>迪士尼專區</v>
+        <v>該資源已購買</v>
       </c>
       <c r="E35" t="str">
-        <v>ديزني لاند</v>
+        <v>تم شراء المورد</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>globalSearch.exercise</v>
+        <v>common.dearTeacher</v>
       </c>
       <c r="B36" t="str">
-        <v>习题/试卷</v>
+        <v>亲爱的老师</v>
       </c>
       <c r="C36" t="str">
-        <v>Exercises &amp; Test Papers</v>
+        <v>Dear Teacher</v>
       </c>
       <c r="D36" t="str">
-        <v>習題/試卷</v>
+        <v>親愛的老師</v>
       </c>
       <c r="E36" t="str">
-        <v>رياضي</v>
+        <v>عزيزي المعلم</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>authorWorks.activity_homepage</v>
+        <v>common.of</v>
       </c>
       <c r="B37" t="str">
-        <v>活动首页</v>
+        <v>的</v>
       </c>
       <c r="C37" t="str">
-        <v>home</v>
+        <v/>
       </c>
       <c r="D37" t="str">
-        <v>活動首頁</v>
+        <v>的</v>
       </c>
       <c r="E37" t="str">
-        <v>الصفحة الرئيسية النشطة</v>
+        <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>authorWorks.my_works</v>
+        <v>common.allSubjects</v>
       </c>
       <c r="B38" t="str">
-        <v>我的参赛作品</v>
+        <v>所有学科</v>
       </c>
       <c r="C38" t="str">
-        <v>My entries</v>
+        <v>All</v>
       </c>
       <c r="D38" t="str">
-        <v>我的參賽作品</v>
+        <v>所有學科</v>
       </c>
       <c r="E38" t="str">
-        <v>بلدي يعمل</v>
+        <v>الكل</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>authorWorks.my_selected_works</v>
+        <v>common.myOrder</v>
       </c>
       <c r="B39" t="str">
-        <v>我的入选作品集</v>
+        <v>我的订单</v>
       </c>
       <c r="C39" t="str">
-        <v>Selected works</v>
+        <v>My order</v>
       </c>
       <c r="D39" t="str">
-        <v>我的入選作品集</v>
+        <v>我的訂單</v>
       </c>
       <c r="E39" t="str">
-        <v>بلدي مجموعة مختارة</v>
+        <v xml:space="preserve"> أوامري </v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>authorWorks.selected_works</v>
+        <v>common.-1</v>
       </c>
       <c r="B40" t="str">
-        <v>入选作品</v>
+        <v>所有学科</v>
       </c>
       <c r="C40" t="str">
-        <v>selected</v>
+        <v>All</v>
       </c>
       <c r="D40" t="str">
-        <v>入選作品</v>
+        <v>所有學科</v>
       </c>
       <c r="E40" t="str">
-        <v>أعمال مختارة</v>
+        <v>الكل</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>authorWorks.award_works</v>
+        <v>common.newExercises</v>
       </c>
       <c r="B41" t="str">
-        <v>获奖作品</v>
+        <v>新建习题</v>
       </c>
       <c r="C41" t="str">
-        <v>prize</v>
+        <v>New exercise</v>
       </c>
       <c r="D41" t="str">
-        <v>獲獎作品</v>
+        <v>新建習題</v>
       </c>
       <c r="E41" t="str">
-        <v>الحائز على جائزة العمل</v>
+        <v>تمارين جديدة</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>authorWorks.praise</v>
+        <v>common.newExercisesTxt</v>
       </c>
       <c r="B42" t="str">
-        <v>收获赞</v>
+        <v>您可以通过我们提供的模板自主创建习题，来试试轻松备课吧</v>
       </c>
       <c r="C42" t="str">
-        <v>praise</v>
+        <v>You can create your own exercises through the template we provide, and try to prepare lessons easily</v>
       </c>
       <c r="D42" t="str">
-        <v>收穫贊</v>
+        <v>您可以通過我們提供的模板自主創建習題，來試試輕鬆備課吧</v>
       </c>
       <c r="E42" t="str">
-        <v>حصاد الحمد</v>
+        <v>يمكنك إنشاء ممارسة مستقلة من خلال القوالب التي نقدمها ، في محاولة لإعداد الدروس بسهولة</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>authorWorks.used</v>
+        <v>common.addToCart</v>
       </c>
       <c r="B43" t="str">
-        <v>被使用</v>
+        <v>加入资源篮</v>
       </c>
       <c r="C43" t="str">
-        <v>used</v>
+        <v>Add to cart</v>
       </c>
       <c r="D43" t="str">
-        <v>被使用</v>
+        <v>加入资源篮</v>
       </c>
       <c r="E43" t="str">
-        <v>تستخدم</v>
+        <v>الانضمام إلى عربة التسوق</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>authorWorks.no_more</v>
+        <v>common.resourceNotFound</v>
       </c>
       <c r="B44" t="str">
-        <v>没有更多了</v>
+        <v>没有查询到该资源</v>
       </c>
       <c r="C44" t="str">
-        <v>no more</v>
+        <v>The resource was not found</v>
       </c>
       <c r="D44" t="str">
-        <v>沒有更多了</v>
+        <v>沒有查詢到該資源</v>
       </c>
       <c r="E44" t="str">
-        <v>لا أكثر</v>
+        <v>لم يتم العثور على المورد</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
+        <v>common.previewNotSupported</v>
+      </c>
+      <c r="B45" t="str">
+        <v>该资源需要付费后才能预览哦~</v>
+      </c>
+      <c r="C45" t="str">
+        <v>This resource needs to be paid before previewing~</v>
+      </c>
+      <c r="D45" t="str">
+        <v>該資源需要付費後才能預覽哦~</v>
+      </c>
+      <c r="E45" t="str">
+        <v>يجب دفع هذا المورد قبل معاينة ~</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>common.hand_picked</v>
+      </c>
+      <c r="B46" t="str">
+        <v>严选</v>
+      </c>
+      <c r="C46" t="str">
+        <v>hand_picked</v>
+      </c>
+      <c r="D46" t="str">
+        <v>嚴選</v>
+      </c>
+      <c r="E46" t="str">
+        <v>تم اختيارها بعناية</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>common.award</v>
+      </c>
+      <c r="B47" t="str">
+        <v>获奖</v>
+      </c>
+      <c r="C47" t="str">
+        <v>awarded</v>
+      </c>
+      <c r="D47" t="str">
+        <v>獲獎</v>
+      </c>
+      <c r="E47" t="str">
+        <v>مُنحت</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>common.popular</v>
+      </c>
+      <c r="B48" t="str">
+        <v>热门</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Popular</v>
+      </c>
+      <c r="D48" t="str">
+        <v>熱門</v>
+      </c>
+      <c r="E48" t="str">
+        <v>شائع</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>common.newest</v>
+      </c>
+      <c r="B49" t="str">
+        <v>最新</v>
+      </c>
+      <c r="C49" t="str">
+        <v>newest</v>
+      </c>
+      <c r="D49" t="str">
+        <v>最新</v>
+      </c>
+      <c r="E49" t="str">
+        <v>حتى الآن</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>common.not_bad</v>
+      </c>
+      <c r="B50" t="str">
+        <v>不错的</v>
+      </c>
+      <c r="C50" t="str">
+        <v>nice</v>
+      </c>
+      <c r="D50" t="str">
+        <v>不錯的</v>
+      </c>
+      <c r="E50" t="str">
+        <v>لطيف</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>common.sort.label</v>
+      </c>
+      <c r="B51" t="str">
+        <v>排序</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Sort</v>
+      </c>
+      <c r="D51" t="str">
+        <v>排序</v>
+      </c>
+      <c r="E51" t="str">
+        <v>فرز</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>common.sort.ppt</v>
+      </c>
+      <c r="B52" t="str">
+        <v>综合排序</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Comprehensive</v>
+      </c>
+      <c r="D52" t="str">
+        <v>綜合排序</v>
+      </c>
+      <c r="E52" t="str">
+        <v>شامل</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>common.sort.new</v>
+      </c>
+      <c r="B53" t="str">
+        <v>最新上架</v>
+      </c>
+      <c r="C53" t="str">
+        <v>New</v>
+      </c>
+      <c r="D53" t="str">
+        <v>最新上架</v>
+      </c>
+      <c r="E53" t="str">
+        <v>جديد .</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>common.sort.hot</v>
+      </c>
+      <c r="B54" t="str">
+        <v>最热下载</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Hot</v>
+      </c>
+      <c r="D54" t="str">
+        <v>最熱下載</v>
+      </c>
+      <c r="E54" t="str">
+        <v>حار</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>common.sort.prize</v>
+      </c>
+      <c r="B55" t="str">
+        <v>获奖</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Prize</v>
+      </c>
+      <c r="D55" t="str">
+        <v>獲獎</v>
+      </c>
+      <c r="E55" t="str">
+        <v>الجوائز</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>common.filter</v>
+      </c>
+      <c r="B56" t="str">
+        <v>筛选</v>
+      </c>
+      <c r="C56" t="str">
+        <v>filter</v>
+      </c>
+      <c r="D56" t="str">
+        <v>篩選</v>
+      </c>
+      <c r="E56" t="str">
+        <v>فلاتر</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>common.change</v>
+      </c>
+      <c r="B57" t="str">
+        <v>切换</v>
+      </c>
+      <c r="C57" t="str">
+        <v>change</v>
+      </c>
+      <c r="D57" t="str">
+        <v>切換</v>
+      </c>
+      <c r="E57" t="str">
+        <v>تغير</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>common.like_already</v>
+      </c>
+      <c r="B58" t="str">
+        <v>你已点赞过该作品了</v>
+      </c>
+      <c r="C58" t="str">
+        <v>You have already liked the work</v>
+      </c>
+      <c r="D58" t="str">
+        <v>你已點贊過該作品了</v>
+      </c>
+      <c r="E58" t="str">
+        <v>لقد أحببت العمل بالفعل</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>common.unlike_already</v>
+      </c>
+      <c r="B59" t="str">
+        <v>你已取消点赞该作品了</v>
+      </c>
+      <c r="C59" t="str">
+        <v>You have unliked the work</v>
+      </c>
+      <c r="D59" t="str">
+        <v>你已取消點贊該作品了</v>
+      </c>
+      <c r="E59" t="str">
+        <v>لقد كرهت العمل</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>common.net_error</v>
+      </c>
+      <c r="B60" t="str">
+        <v>网络异常</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Network error</v>
+      </c>
+      <c r="D60" t="str">
+        <v>網絡異常</v>
+      </c>
+      <c r="E60" t="str">
+        <v>شذوذ في الشبكة</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>common.content</v>
+      </c>
+      <c r="B61" t="str">
+        <v>内容</v>
+      </c>
+      <c r="C61" t="str">
+        <v>content</v>
+      </c>
+      <c r="D61" t="str">
+        <v>內容</v>
+      </c>
+      <c r="E61" t="str">
+        <v>المحتويات</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>common.school</v>
+      </c>
+      <c r="B62" t="str">
+        <v>校本资源</v>
+      </c>
+      <c r="C62" t="str">
+        <v>School Resources</v>
+      </c>
+      <c r="D62" t="str">
+        <v>校本資源</v>
+      </c>
+      <c r="E62" t="str">
+        <v>ا��موارد المدرسية</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>common.education</v>
+      </c>
+      <c r="B63" t="str">
+        <v>精选资源</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Education Resources</v>
+      </c>
+      <c r="D63" t="str">
+        <v>精選資源</v>
+      </c>
+      <c r="E63" t="str">
+        <v>الموارد التعليمية</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>className.hot</v>
+      </c>
+      <c r="B64" t="str">
+        <v>frameB-com-list__img-hot-cn</v>
+      </c>
+      <c r="C64" t="str">
+        <v>frameB-com-list__img-hot</v>
+      </c>
+      <c r="D64" t="str">
+        <v>frameB-com-list__img-hot</v>
+      </c>
+      <c r="E64" t="str">
+        <v>frameB-com-list__img-hot</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>className.boutique</v>
+      </c>
+      <c r="B65" t="str">
+        <v>frameB-com-list__img-boutique-cn</v>
+      </c>
+      <c r="C65" t="str">
+        <v>frameB-com-list__img-boutique</v>
+      </c>
+      <c r="D65" t="str">
+        <v>frameB-com-list__img-boutique</v>
+      </c>
+      <c r="E65" t="str">
+        <v>frameB-com-list__img-boutique</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>className.feature</v>
+      </c>
+      <c r="B66" t="str">
+        <v>frameB-com-list__img-feature-cn</v>
+      </c>
+      <c r="C66" t="str">
+        <v>frameB-com-list__img-feature</v>
+      </c>
+      <c r="D66" t="str">
+        <v>frameB-com-list__img-feature</v>
+      </c>
+      <c r="E66" t="str">
+        <v>frameB-com-list__img-feature</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>className.news</v>
+      </c>
+      <c r="B67" t="str">
+        <v>frameB-com-list__img-new-cn</v>
+      </c>
+      <c r="C67" t="str">
+        <v>frameB-com-list__img-new</v>
+      </c>
+      <c r="D67" t="str">
+        <v>frameB-com-list__img-new</v>
+      </c>
+      <c r="E67" t="str">
+        <v>frameB-com-list__img-new</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>className.hard</v>
+      </c>
+      <c r="B68" t="str">
+        <v>icon-hard-cn</v>
+      </c>
+      <c r="C68" t="str">
+        <v>icon-hard</v>
+      </c>
+      <c r="D68" t="str">
+        <v>icon-hard</v>
+      </c>
+      <c r="E68" t="str">
+        <v>icon-hard</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>courseware.category</v>
+      </c>
+      <c r="B69" t="str">
+        <v>类型</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Category</v>
+      </c>
+      <c r="D69" t="str">
+        <v>分類</v>
+      </c>
+      <c r="E69" t="str">
+        <v>الفئة</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>courseware.uploadcourseware</v>
+      </c>
+      <c r="B70" t="str">
+        <v>上传课件</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Upload</v>
+      </c>
+      <c r="D70" t="str">
+        <v>上傳課件</v>
+      </c>
+      <c r="E70" t="str">
+        <v>تحميل</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>tool.open</v>
+      </c>
+      <c r="B71" t="str">
+        <v>展开</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Open</v>
+      </c>
+      <c r="D71" t="str">
+        <v>展開</v>
+      </c>
+      <c r="E71" t="str">
+        <v>فتح</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>tool.collect</v>
+      </c>
+      <c r="B72" t="str">
+        <v>收起</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Collect</v>
+      </c>
+      <c r="D72" t="str">
+        <v>收起</v>
+      </c>
+      <c r="E72" t="str">
+        <v>تجميع</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>tool.currentSubject</v>
+      </c>
+      <c r="B73" t="str">
+        <v>当前所选��科</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Subject</v>
+      </c>
+      <c r="D73" t="str">
+        <v>當前所選學科</v>
+      </c>
+      <c r="E73" t="str">
+        <v>المادة</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>tool.currentCategory</v>
+      </c>
+      <c r="B74" t="str">
+        <v>当前所选类别</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Category</v>
+      </c>
+      <c r="D74" t="str">
+        <v>當前所選類別</v>
+      </c>
+      <c r="E74" t="str">
+        <v>تصنيف .</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>tool.stillConstructing</v>
+      </c>
+      <c r="B75" t="str">
+        <v>的学科工具还在疯狂的建设中。你可以：</v>
+      </c>
+      <c r="C75" t="str">
+        <v>The subject tools are still under construction. You can:</v>
+      </c>
+      <c r="D75" t="str">
+        <v>的學科工具還在瘋狂的建設中。妳可以：</v>
+      </c>
+      <c r="E75" t="str">
+        <v>لا تزال أدوات المواد قيد الإنشاء. يمكنك:</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>tool.searchPlaceholder</v>
+      </c>
+      <c r="B76" t="str">
+        <v>搜索你想要的</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Search for the resources you want</v>
+      </c>
+      <c r="D76" t="str">
+        <v>搜索你想要的</v>
+      </c>
+      <c r="E76" t="str">
+        <v>البحث عن الموارد التي تريدها</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>tool.mathTool</v>
+      </c>
+      <c r="B77" t="str">
+        <v>数学学科工具</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Math Tools</v>
+      </c>
+      <c r="D77" t="str">
+        <v>數學學科工具</v>
+      </c>
+      <c r="E77" t="str">
+        <v>أدوات الرياضيات</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>tool.physicalTool</v>
+      </c>
+      <c r="B78" t="str">
+        <v>物理学科工具</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Physical Tools</v>
+      </c>
+      <c r="D78" t="str">
+        <v>物理學科工具</v>
+      </c>
+      <c r="E78" t="str">
+        <v>الأدوات المادية</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>tool.fileSize</v>
+      </c>
+      <c r="B79" t="str">
+        <v>文件大小：</v>
+      </c>
+      <c r="C79" t="str">
+        <v>File size:</v>
+      </c>
+      <c r="D79" t="str">
+        <v>文件大小：</v>
+      </c>
+      <c r="E79" t="str">
+        <v>حجم الملف</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>tool.wxScan</v>
+      </c>
+      <c r="B80" t="str">
+        <v>微信扫一扫</v>
+      </c>
+      <c r="C80" t="str">
+        <v xml:space="preserve">Wechat Scan </v>
+      </c>
+      <c r="D80" t="str">
+        <v>微信掃一掃</v>
+      </c>
+      <c r="E80" t="str">
+        <v>رسالة صغيرة اكتساح</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>tool.shareToFriend</v>
+      </c>
+      <c r="B81" t="str">
+        <v>即可将资源分享给你的好友</v>
+      </c>
+      <c r="C81" t="str">
+        <v>You can share resources with your friends.</v>
+      </c>
+      <c r="D81" t="str">
+        <v>即可將資源分享給你的好友</v>
+      </c>
+      <c r="E81" t="str">
+        <v>تقاسم الموارد مع أصدقائك</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>tool.praise</v>
+      </c>
+      <c r="B82" t="str">
+        <v>赞</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Praise</v>
+      </c>
+      <c r="D82" t="str">
+        <v>贊</v>
+      </c>
+      <c r="E82" t="str">
+        <v>زند</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>tool.relateResource</v>
+      </c>
+      <c r="B83" t="str">
+        <v>相关资源</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Related resources</v>
+      </c>
+      <c r="D83" t="str">
+        <v>相關資源</v>
+      </c>
+      <c r="E83" t="str">
+        <v>الموارد ذات الصلة</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>tool.subjectToolVideo</v>
+      </c>
+      <c r="B84" t="str">
+        <v>学科工具教学视频</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Teaching video of subject tools</v>
+      </c>
+      <c r="D84" t="str">
+        <v>學科工具教學視頻</v>
+      </c>
+      <c r="E84" t="str">
+        <v>موضوع تعليم الفيديو أداة</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>tool.tool</v>
+      </c>
+      <c r="B85" t="str">
+        <v>学科工具</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Subject tools</v>
+      </c>
+      <c r="D85" t="str">
+        <v>學科工具</v>
+      </c>
+      <c r="E85" t="str">
+        <v>أدوات الموضوع</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>physical.login_title_nobook</v>
+      </c>
+      <c r="B86" t="str">
+        <v>登录后即可使用NB物理实验室</v>
+      </c>
+      <c r="C86" t="str">
+        <v/>
+      </c>
+      <c r="D86" t="str">
+        <v/>
+      </c>
+      <c r="E86" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>d3d.share_resource_tips</v>
+      </c>
+      <c r="B87" t="str">
+        <v>共享资源里没有3D资源</v>
+      </c>
+      <c r="C87" t="str">
+        <v>No 3D resources in the shared resource</v>
+      </c>
+      <c r="D87" t="str">
+        <v>共享资源里没有3D资源</v>
+      </c>
+      <c r="E87" t="str">
+        <v>لا توجد موارد ثلاثية الأبعاد في المورد المشترك</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>exercise.section</v>
+      </c>
+      <c r="B88" t="str">
+        <v>学段</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Section</v>
+      </c>
+      <c r="D88" t="str">
+        <v>学段</v>
+      </c>
+      <c r="E88" t="str">
+        <v>القسم</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>exercise.grade</v>
+      </c>
+      <c r="B89" t="str">
+        <v>年级</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Grade</v>
+      </c>
+      <c r="D89" t="str">
+        <v>年级</v>
+      </c>
+      <c r="E89" t="str">
+        <v>الدرجة</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>exercise.subject</v>
+      </c>
+      <c r="B90" t="str">
+        <v>学科</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Subject</v>
+      </c>
+      <c r="D90" t="str">
+        <v>学科</v>
+      </c>
+      <c r="E90" t="str">
+        <v>المادة</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>exercise.area</v>
+      </c>
+      <c r="B91" t="str">
+        <v>地区</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Area</v>
+      </c>
+      <c r="D91" t="str">
+        <v>地区</v>
+      </c>
+      <c r="E91" t="str">
+        <v>المجال</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>exercise.time</v>
+      </c>
+      <c r="B92" t="str">
+        <v>时间</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Time</v>
+      </c>
+      <c r="D92" t="str">
+        <v>时间</v>
+      </c>
+      <c r="E92" t="str">
+        <v>الوقت</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>exercise.share_resource_tips_base</v>
+      </c>
+      <c r="B93" t="str">
+        <v>共享资源里没有基础习题</v>
+      </c>
+      <c r="C93" t="str">
+        <v>No basic exercises in the shared resource</v>
+      </c>
+      <c r="D93" t="str">
+        <v>共享资源里没有基础习题</v>
+      </c>
+      <c r="E93" t="str">
+        <v>لا توجد تمارين أساسية في المورد المشترك</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>exercise.share_resource_tips_interact</v>
+      </c>
+      <c r="B94" t="str">
+        <v>共享资源里没有趣味习题</v>
+      </c>
+      <c r="C94" t="str">
+        <v>No interesting exercises in the shared</v>
+      </c>
+      <c r="D94" t="str">
+        <v>共享资源里没有趣味习题</v>
+      </c>
+      <c r="E94" t="str">
+        <v>لا توجد تمارين مثيرة للاهتمام في المورد المشترك</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>exercise.share_resource_tips_test</v>
+      </c>
+      <c r="B95" t="str">
+        <v>共享资源里没有试卷资源</v>
+      </c>
+      <c r="C95" t="str">
+        <v>No available resource</v>
+      </c>
+      <c r="D95" t="str">
+        <v>該單元暫無此類資源</v>
+      </c>
+      <c r="E95" t="str">
+        <v>لا يوجد مورد متاح</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>theme.assets_coursewaretemplates</v>
+      </c>
+      <c r="B96" t="str">
+        <v>主题</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Themes</v>
+      </c>
+      <c r="D96" t="str">
+        <v>主題</v>
+      </c>
+      <c r="E96" t="str">
+        <v>السمات</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>theme.ppt_templates</v>
+      </c>
+      <c r="B97" t="str">
+        <v>模板</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Templates</v>
+      </c>
+      <c r="D97" t="str">
+        <v>範本</v>
+      </c>
+      <c r="E97" t="str">
+        <v>القوالب</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>theme.coursewarecorvertemplates</v>
+      </c>
+      <c r="B98" t="str">
+        <v>智能封面</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Cover</v>
+      </c>
+      <c r="D98" t="str">
+        <v>封面</v>
+      </c>
+      <c r="E98" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>vr.subject</v>
+      </c>
+      <c r="B99" t="str">
+        <v>学科</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Kind</v>
+      </c>
+      <c r="D99" t="str">
+        <v>学科</v>
+      </c>
+      <c r="E99" t="str">
+        <v>المادة</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>components.button_search</v>
+      </c>
+      <c r="B100" t="str">
+        <v>搜索</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Search</v>
+      </c>
+      <c r="D100" t="str">
+        <v>搜尋</v>
+      </c>
+      <c r="E100" t="str">
+        <v>بحث</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>components.placeholder_search</v>
+      </c>
+      <c r="B101" t="str">
+        <v>搜索你想要的</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Enter keywords</v>
+      </c>
+      <c r="D101" t="str">
+        <v>��索你想要的</v>
+      </c>
+      <c r="E101" t="str">
+        <v>إدخال الكلمات الرئيسية</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>components.category</v>
+      </c>
+      <c r="B102" t="str">
+        <v>类型</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Kind</v>
+      </c>
+      <c r="D102" t="str">
+        <v>分類</v>
+      </c>
+      <c r="E102" t="str">
+        <v>النوع</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>components.title_no_resource</v>
+      </c>
+      <c r="B103" t="str">
+        <v>该章节暂无此类资源</v>
+      </c>
+      <c r="C103" t="str">
+        <v>No available resource</v>
+      </c>
+      <c r="D103" t="str">
+        <v>該單元暫無此類資源</v>
+      </c>
+      <c r="E103" t="str">
+        <v>لا يوجد مورد متاح</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>components.you_can_no_resource</v>
+      </c>
+      <c r="B104" t="str">
+        <v>你可以 :</v>
+      </c>
+      <c r="C104" t="str">
+        <v>You can:</v>
+      </c>
+      <c r="D104" t="str">
+        <v>你可以 :</v>
+      </c>
+      <c r="E104" t="str">
+        <v>يمكنك:</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>components.first_no_resource</v>
+      </c>
+      <c r="B105" t="str">
+        <v>1、查看其他资源类型；</v>
+      </c>
+      <c r="C105" t="str">
+        <v>1.View other types of resources</v>
+      </c>
+      <c r="D105" t="str">
+        <v>1、查看其他類型資源；</v>
+      </c>
+      <c r="E105" t="str">
+        <v>1. عرض أنواع أخرى من الموارد</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>components.second_no_resource</v>
+      </c>
+      <c r="B106" t="str">
+        <v>2、修改当前章节。</v>
+      </c>
+      <c r="C106" t="str">
+        <v>2.Modify current chapter</v>
+      </c>
+      <c r="D106" t="str">
+        <v>2、修改目前單元。</v>
+      </c>
+      <c r="E106" t="str">
+        <v>2. تعديل الفصل الحالي</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>components.login</v>
+      </c>
+      <c r="B107" t="str">
+        <v>登录</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Login</v>
+      </c>
+      <c r="D107" t="str">
+        <v>登錄</v>
+      </c>
+      <c r="E107" t="str">
+        <v>سجل</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>components.cancel</v>
+      </c>
+      <c r="B108" t="str">
+        <v>取消</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Cancel</v>
+      </c>
+      <c r="D108" t="str">
+        <v>取消</v>
+      </c>
+      <c r="E108" t="str">
+        <v>ألغى</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>components.remark</v>
+      </c>
+      <c r="B109" t="str">
+        <v>亲爱的老师，登录后就能使用资源哦。</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Dear teacher, you can use resources after logging in.</v>
+      </c>
+      <c r="D109" t="str">
+        <v>親愛的老師，登錄後就能使用資源哦。</v>
+      </c>
+      <c r="E109" t="str">
+        <v>عزيزي المعلم ، يمكنك استخدام الموارد بعد تسجيل الدخول .</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>resource.resource</v>
+      </c>
+      <c r="B110" t="str">
+        <v>资源</v>
+      </c>
+      <c r="C110" t="str">
+        <v>resource</v>
+      </c>
+      <c r="D110" t="str">
+        <v>資源</v>
+      </c>
+      <c r="E110" t="str">
+        <v>المورد</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>resource.courseware</v>
+      </c>
+      <c r="B111" t="str">
+        <v>课件</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Courseware</v>
+      </c>
+      <c r="D111" t="str">
+        <v>教學資源</v>
+      </c>
+      <c r="E111" t="str">
+        <v>المناهج التعليمية</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>resource.ebook</v>
+      </c>
+      <c r="B112" t="str">
+        <v>电子教材</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Electronic Courseware</v>
+      </c>
+      <c r="D112" t="str">
+        <v>電子教案</v>
+      </c>
+      <c r="E112" t="str">
+        <v>المناهج التعليمية الإلكترونية</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>resource.ebooks</v>
+      </c>
+      <c r="B113" t="str">
+        <v>电子教材</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Electronic Courseware</v>
+      </c>
+      <c r="D113" t="str">
+        <v>電子教案</v>
+      </c>
+      <c r="E113" t="str">
+        <v>المناهج التعليمية الإلكترونية</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>resource.lessonplans</v>
+      </c>
+      <c r="B114" t="str">
+        <v>教案</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Lesson Plans</v>
+      </c>
+      <c r="D114" t="str">
+        <v>教案</v>
+      </c>
+      <c r="E114" t="str">
+        <v>خطط الدروس</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>resource.learningplans</v>
+      </c>
+      <c r="B115" t="str">
+        <v>学案</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Learning Plans</v>
+      </c>
+      <c r="D115" t="str">
+        <v>學案</v>
+      </c>
+      <c r="E115" t="str">
+        <v>خطط التعلم</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>resource.picture</v>
+      </c>
+      <c r="B116" t="str">
+        <v>图片</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Images</v>
+      </c>
+      <c r="D116" t="str">
+        <v>圖片</v>
+      </c>
+      <c r="E116" t="str">
+        <v>صور</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>resource.video</v>
+      </c>
+      <c r="B117" t="str">
+        <v>视频</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Videos</v>
+      </c>
+      <c r="D117" t="str">
+        <v>視頻</v>
+      </c>
+      <c r="E117" t="str">
+        <v>ملف فيديو</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>resource.animation</v>
+      </c>
+      <c r="B118" t="str">
+        <v>动画</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Animations</v>
+      </c>
+      <c r="D118" t="str">
+        <v>動畫</v>
+      </c>
+      <c r="E118" t="str">
+        <v>الرسوم المتحركة</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>resource.audio</v>
+      </c>
+      <c r="B119" t="str">
+        <v>音频</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Audio</v>
+      </c>
+      <c r="D119" t="str">
+        <v>音訊</v>
+      </c>
+      <c r="E119" t="str">
+        <v>ملف صوت</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>resource.basicexercise</v>
+      </c>
+      <c r="B120" t="str">
+        <v>基础习题</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Exercise</v>
+      </c>
+      <c r="D120" t="str">
+        <v>基礎習題</v>
+      </c>
+      <c r="E120" t="str">
+        <v>تمرين</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>resource.interactexercise</v>
+      </c>
+      <c r="B121" t="str">
+        <v>趣味习题</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Interactive Exercises</v>
+      </c>
+      <c r="D121" t="str">
+        <v>趣味習題</v>
+      </c>
+      <c r="E121" t="str">
+        <v>التمارين التفاعلية</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>resource.exercise</v>
+      </c>
+      <c r="B122" t="str">
+        <v>习题/试卷</v>
+      </c>
+      <c r="C122" t="str">
+        <v>Exercises &amp; Test Papers</v>
+      </c>
+      <c r="D122" t="str">
+        <v>習題/試卷</v>
+      </c>
+      <c r="E122" t="str">
+        <v>ورقة الاختبار</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>resource.examinationpapers</v>
+      </c>
+      <c r="B123" t="str">
+        <v>试卷</v>
+      </c>
+      <c r="C123" t="str">
+        <v>Test paper</v>
+      </c>
+      <c r="D123" t="str">
+        <v>試卷</v>
+      </c>
+      <c r="E123" t="str">
+        <v>ورقة الاختبار</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>resource.examinationpapersandanswer</v>
+      </c>
+      <c r="B124" t="str">
+        <v>试卷</v>
+      </c>
+      <c r="C124" t="str">
+        <v/>
+      </c>
+      <c r="D124" t="str">
+        <v>試卷</v>
+      </c>
+      <c r="E124" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>resource.vr</v>
+      </c>
+      <c r="B125" t="str">
+        <v>VR资源</v>
+      </c>
+      <c r="C125" t="str">
+        <v>VR Resource</v>
+      </c>
+      <c r="D125" t="str">
+        <v>VR資源</v>
+      </c>
+      <c r="E125" t="str">
+        <v>موارد الواقع الافتراضي</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>resource.vrcourseware</v>
+      </c>
+      <c r="B126" t="str">
+        <v>VR课件资源</v>
+      </c>
+      <c r="C126" t="str">
+        <v>VR Courseware</v>
+      </c>
+      <c r="D126" t="str">
+        <v>VR教學資源</v>
+      </c>
+      <c r="E126" t="str">
+        <v>المناهج التعليمية للواقع الافتراضي</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>resource.physicalvideo</v>
+      </c>
+      <c r="B127" t="str">
+        <v>实验视频</v>
+      </c>
+      <c r="C127" t="str">
+        <v>Experiment Videos</v>
+      </c>
+      <c r="D127" t="str">
+        <v>实验视频</v>
+      </c>
+      <c r="E127" t="str">
+        <v>فيديوهات التجربة</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>resource.physical3d</v>
+      </c>
+      <c r="B128" t="str">
+        <v>3D虚拟实验室</v>
+      </c>
+      <c r="C128" t="str">
+        <v>3D Virtual Lab</v>
+      </c>
+      <c r="D128" t="str">
+        <v>3D虚拟实验室</v>
+      </c>
+      <c r="E128" t="str">
+        <v>المختبر الافتراضي ثلاثي الأبعاد</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>resource.nobook</v>
+      </c>
+      <c r="B129" t="str">
+        <v>NB物理实验</v>
+      </c>
+      <c r="C129" t="str">
+        <v>NB Physics Experiments</v>
+      </c>
+      <c r="D129" t="str">
+        <v>NB物理实验</v>
+      </c>
+      <c r="E129" t="str">
+        <v xml:space="preserve">NB تجارب الفيزياء </v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>resource.chemistry</v>
+      </c>
+      <c r="B130" t="str">
+        <v>化学实验</v>
+      </c>
+      <c r="C130" t="str">
+        <v>Chemistry Experiments</v>
+      </c>
+      <c r="D130" t="str">
+        <v>化学实验</v>
+      </c>
+      <c r="E130" t="str">
+        <v>تجارب الكيمياء</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>resource.coursewaretemplates</v>
+      </c>
+      <c r="B131" t="str">
+        <v>PPT主题</v>
+      </c>
+      <c r="C131" t="str">
+        <v>PPT Theme</v>
+      </c>
+      <c r="D131" t="str">
+        <v>主題</v>
+      </c>
+      <c r="E131" t="str">
+        <v>PPT نسق</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>resource.ppttemplate</v>
+      </c>
+      <c r="B132" t="str">
+        <v>模板</v>
+      </c>
+      <c r="C132" t="str">
+        <v>Templates</v>
+      </c>
+      <c r="D132" t="str">
+        <v>範本</v>
+      </c>
+      <c r="E132" t="str">
+        <v>القوالب</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>resource.microcourse</v>
+      </c>
+      <c r="B133" t="str">
+        <v>微课</v>
+      </c>
+      <c r="C133" t="str">
+        <v>Micro Courseware</v>
+      </c>
+      <c r="D133" t="str">
+        <v>微课</v>
+      </c>
+      <c r="E133" t="str">
+        <v>المناهج الدقيقة</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>resource.highDefinition</v>
+      </c>
+      <c r="B134" t="str">
+        <v>高清</v>
+      </c>
+      <c r="C134" t="str">
+        <v>HD</v>
+      </c>
+      <c r="D134" t="str">
+        <v>高清</v>
+      </c>
+      <c r="E134" t="str">
+        <v>هد</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>resource.normalDefinition</v>
+      </c>
+      <c r="B135" t="str">
+        <v>普通</v>
+      </c>
+      <c r="C135" t="str">
+        <v>SD</v>
+      </c>
+      <c r="D135" t="str">
+        <v>普通</v>
+      </c>
+      <c r="E135" t="str">
+        <v>مشترك</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>resource.fluentDefinition</v>
+      </c>
+      <c r="B136" t="str">
+        <v>流畅</v>
+      </c>
+      <c r="C136" t="str">
+        <v>Fluent</v>
+      </c>
+      <c r="D136" t="str">
+        <v>流暢</v>
+      </c>
+      <c r="E136" t="str">
+        <v>سلاسة</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>resource.selectDefinition</v>
+      </c>
+      <c r="B137" t="str">
+        <v>选择清晰度</v>
+      </c>
+      <c r="C137" t="str">
+        <v>Please select the clarity of the video to be inserted</v>
+      </c>
+      <c r="D137" t="str">
+        <v>請選擇要插入的視屏清晰度</v>
+      </c>
+      <c r="E137" t="str">
+        <v>الرجاء اختيار تعريف الفيديو إدراج</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>resource.all</v>
+      </c>
+      <c r="B138" t="str">
+        <v>全部</v>
+      </c>
+      <c r="C138" t="str">
+        <v>all</v>
+      </c>
+      <c r="D138" t="str">
+        <v>全部</v>
+      </c>
+      <c r="E138" t="str">
+        <v>الكل</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>resource.coursewares</v>
+      </c>
+      <c r="B139" t="str">
+        <v>课件</v>
+      </c>
+      <c r="C139" t="str">
+        <v>courseware</v>
+      </c>
+      <c r="D139" t="str">
+        <v>課件</v>
+      </c>
+      <c r="E139" t="str">
+        <v>المناهج التعليمية</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>resource.tool</v>
+      </c>
+      <c r="B140" t="str">
+        <v>学科工具</v>
+      </c>
+      <c r="C140" t="str">
+        <v>Subject Tools</v>
+      </c>
+      <c r="D140" t="str">
+        <v>學科工具</v>
+      </c>
+      <c r="E140" t="str">
+        <v>تولز</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>resource.experience</v>
+      </c>
+      <c r="B141" t="str">
+        <v>实验</v>
+      </c>
+      <c r="C141" t="str">
+        <v>Physics Experiments</v>
+      </c>
+      <c r="D141" t="str">
+        <v>實驗</v>
+      </c>
+      <c r="E141" t="str">
+        <v>تجريبي</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>resource.media</v>
+      </c>
+      <c r="B142" t="str">
+        <v>多媒体</v>
+      </c>
+      <c r="C142" t="str">
+        <v>Multimedia</v>
+      </c>
+      <c r="D142" t="str">
+        <v>多媒體</v>
+      </c>
+      <c r="E142" t="str">
+        <v>الميديا</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>resource.threeD</v>
+      </c>
+      <c r="B143" t="str">
+        <v>3D资源</v>
+      </c>
+      <c r="C143" t="str">
+        <v>3D Resources</v>
+      </c>
+      <c r="D143" t="str">
+        <v>3D資源</v>
+      </c>
+      <c r="E143" t="str">
+        <v xml:space="preserve">ثري دي </v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>resource.threeDLib</v>
+      </c>
+      <c r="B144" t="str">
+        <v>3D资源库</v>
+      </c>
+      <c r="C144" t="str">
+        <v>3D Resources Library</v>
+      </c>
+      <c r="D144" t="str">
+        <v>3D資源庫</v>
+      </c>
+      <c r="E144" t="str">
+        <v>قاعدة بيانات الموارد</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>resource.theme</v>
+      </c>
+      <c r="B145" t="str">
+        <v>美课大师</v>
+      </c>
+      <c r="C145" t="str">
+        <v>Themes</v>
+      </c>
+      <c r="D145" t="str">
+        <v>美課大師</v>
+      </c>
+      <c r="E145" t="str">
+        <v>الثيمات</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>resource.assets_picture</v>
+      </c>
+      <c r="B146" t="str">
+        <v>图片</v>
+      </c>
+      <c r="C146" t="str">
+        <v>Images</v>
+      </c>
+      <c r="D146" t="str">
+        <v>圖片</v>
+      </c>
+      <c r="E146" t="str">
+        <v>صور</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>resource.assets_video</v>
+      </c>
+      <c r="B147" t="str">
+        <v>视频</v>
+      </c>
+      <c r="C147" t="str">
+        <v>Videos</v>
+      </c>
+      <c r="D147" t="str">
+        <v>視頻</v>
+      </c>
+      <c r="E147" t="str">
+        <v>ملف فيديو</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>resource.assets_flash</v>
+      </c>
+      <c r="B148" t="str">
+        <v>动画</v>
+      </c>
+      <c r="C148" t="str">
+        <v>Animations</v>
+      </c>
+      <c r="D148" t="str">
+        <v>動畫</v>
+      </c>
+      <c r="E148" t="str">
+        <v>الرسوم المتحركة</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>resource.assets_audio</v>
+      </c>
+      <c r="B149" t="str">
+        <v>音频</v>
+      </c>
+      <c r="C149" t="str">
+        <v>Audio</v>
+      </c>
+      <c r="D149" t="str">
+        <v>音訊</v>
+      </c>
+      <c r="E149" t="str">
+        <v>ملف صوت</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>resource.assets_coursewaretemplates</v>
+      </c>
+      <c r="B150" t="str">
+        <v>主题</v>
+      </c>
+      <c r="C150" t="str">
+        <v>Themes</v>
+      </c>
+      <c r="D150" t="str">
+        <v>主題</v>
+      </c>
+      <c r="E150" t="str">
+        <v>السمات</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>resource.ppt_templates</v>
+      </c>
+      <c r="B151" t="str">
+        <v>模板</v>
+      </c>
+      <c r="C151" t="str">
+        <v>Templates</v>
+      </c>
+      <c r="D151" t="str">
+        <v>範本</v>
+      </c>
+      <c r="E151" t="str">
+        <v>القوالب</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>resource.coursewareobjects</v>
+      </c>
+      <c r="B152" t="str">
+        <v>3D虚拟实验室</v>
+      </c>
+      <c r="C152" t="str">
+        <v>3D Virtual Lab</v>
+      </c>
+      <c r="D152" t="str">
+        <v>3D虛擬實驗室</v>
+      </c>
+      <c r="E152" t="str">
+        <v>المختبر الافتراضي ثلاثي الأبعاد</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>resource.assets_vr,assets_vrpanoramagram,assets_vrpanoramicvideo</v>
+      </c>
+      <c r="B153" t="str">
+        <v>VR资源</v>
+      </c>
+      <c r="C153" t="str">
+        <v>VRresources</v>
+      </c>
+      <c r="D153" t="str">
+        <v>VR資源</v>
+      </c>
+      <c r="E153" t="str">
+        <v>VRالريسورس</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>resource.aianimation</v>
+      </c>
+      <c r="B154" t="str">
+        <v>AI动画</v>
+      </c>
+      <c r="C154" t="str">
+        <v>Ai Animation</v>
+      </c>
+      <c r="D154" t="str">
+        <v>AI動畫</v>
+      </c>
+      <c r="E154" t="str">
+        <v>الذكاء الاصطناعي الرسوم المتحركة</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>resource.user</v>
+      </c>
+      <c r="B155" t="str">
+        <v>用户</v>
+      </c>
+      <c r="C155" t="str">
+        <v>User</v>
+      </c>
+      <c r="D155" t="str">
+        <v>用戶</v>
+      </c>
+      <c r="E155" t="str">
+        <v>مستعمل</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>resource.coursewarecorvertemplates</v>
+      </c>
+      <c r="B156" t="str">
+        <v>智能封面</v>
+      </c>
+      <c r="C156" t="str">
+        <v>Cover</v>
+      </c>
+      <c r="D156" t="str">
+        <v>封面</v>
+      </c>
+      <c r="E156" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>resource.learn_training_document</v>
+      </c>
+      <c r="B157" t="str">
+        <v>练习&amp;测试</v>
+      </c>
+      <c r="C157" t="str">
+        <v>Learn&amp;Training</v>
+      </c>
+      <c r="D157" t="str">
+        <v>練習&amp;測試</v>
+      </c>
+      <c r="E157" t="str">
+        <v>الممارسة والاختبار</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>resource.async_expand_document</v>
+      </c>
+      <c r="B158" t="str">
+        <v>同步拓展</v>
+      </c>
+      <c r="C158" t="str">
+        <v>AsyncExpand</v>
+      </c>
+      <c r="D158" t="str">
+        <v>同步拓展</v>
+      </c>
+      <c r="E158" t="str">
+        <v>تزامن التوسع</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>noSearchContent.txt_001</v>
+      </c>
+      <c r="B159" t="str">
+        <v>没有搜索到与</v>
+      </c>
+      <c r="C159" t="str">
+        <v xml:space="preserve">No results found for </v>
+      </c>
+      <c r="D159" t="str">
+        <v>沒有搜索到與</v>
+      </c>
+      <c r="E159" t="str">
+        <v xml:space="preserve">لم يتم العثور على نتائج لـ  </v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>noSearchContent.txt_002</v>
+      </c>
+      <c r="B160" t="str">
+        <v>相关的资源</v>
+      </c>
+      <c r="C160" t="str">
+        <v/>
+      </c>
+      <c r="D160" t="str">
+        <v>相關的資源</v>
+      </c>
+      <c r="E160" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>noSearchContent.txt_003</v>
+      </c>
+      <c r="B161" t="str">
+        <v>您可以尝试:</v>
+      </c>
+      <c r="C161" t="str">
+        <v>Suggestions to:</v>
+      </c>
+      <c r="D161" t="str">
+        <v>您可以嘗試:</v>
+      </c>
+      <c r="E161" t="str">
+        <v>يمكنك محاولة:</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>noSearchContent.txt_004</v>
+      </c>
+      <c r="B162" t="str">
+        <v>精简搜索的关键词</v>
+      </c>
+      <c r="C162" t="str">
+        <v>Try more general keywords</v>
+      </c>
+      <c r="D162" t="str">
+        <v>精簡搜索的關鍵詞</v>
+      </c>
+      <c r="E162" t="str">
+        <v>تبسيط كلمات البحث</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>noSearchContent.txt_005</v>
+      </c>
+      <c r="B163" t="str">
+        <v>搜索更多类型的资源</v>
+      </c>
+      <c r="C163" t="str">
+        <v>Try other categories</v>
+      </c>
+      <c r="D163" t="str">
+        <v>搜索更多类型的資源</v>
+      </c>
+      <c r="E163" t="str">
+        <v>البحث عن فئات أخرى</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>noSearchContent.txt_006</v>
+      </c>
+      <c r="B164" t="str">
+        <v>去看看</v>
+      </c>
+      <c r="C164" t="str">
+        <v>Other</v>
+      </c>
+      <c r="D164" t="str">
+        <v>去看看</v>
+      </c>
+      <c r="E164" t="str">
+        <v>قم بإلقاء نظرة</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>noSearchContent.txt_007</v>
+      </c>
+      <c r="B165" t="str">
+        <v>海量高品质资源等你来搜</v>
+      </c>
+      <c r="C165" t="str">
+        <v>High quality resources for you</v>
+      </c>
+      <c r="D165" t="str">
+        <v>海量高品質資源等你來搜</v>
+      </c>
+      <c r="E165" t="str">
+        <v>موارد عالية الجودة لك</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>noSearchContent.txt_008</v>
+      </c>
+      <c r="B166" t="str">
+        <v>试试用百度搜索</v>
+      </c>
+      <c r="C166" t="str">
+        <v>Search with Baidu</v>
+      </c>
+      <c r="D166" t="str">
+        <v>试试用百度搜索</v>
+      </c>
+      <c r="E166" t="str">
+        <v>Baidu بحث</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>noSearchContent.txt_009</v>
+      </c>
+      <c r="B167" t="str">
+        <v>切换百度搜索</v>
+      </c>
+      <c r="C167" t="str">
+        <v>Baidu</v>
+      </c>
+      <c r="D167" t="str">
+        <v>切换百度搜索</v>
+      </c>
+      <c r="E167" t="str">
+        <v>Baidu</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>audioItem.hot</v>
+      </c>
+      <c r="B168" t="str">
+        <v>audio-container__hot-cn</v>
+      </c>
+      <c r="C168" t="str">
+        <v>audio-container__hot</v>
+      </c>
+      <c r="D168" t="str">
+        <v>audio-container__hot</v>
+      </c>
+      <c r="E168" t="str">
+        <v>audio-container__hot</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>audioItem.boutique</v>
+      </c>
+      <c r="B169" t="str">
+        <v>audio-container__boutique-cn</v>
+      </c>
+      <c r="C169" t="str">
+        <v>audio-container__boutique</v>
+      </c>
+      <c r="D169" t="str">
+        <v>audio-container__boutique</v>
+      </c>
+      <c r="E169" t="str">
+        <v>audio-container__boutique</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>audioItem.feature</v>
+      </c>
+      <c r="B170" t="str">
+        <v>audio-container__feature-cn</v>
+      </c>
+      <c r="C170" t="str">
+        <v>audio-container__feature</v>
+      </c>
+      <c r="D170" t="str">
+        <v>audio-container__feature</v>
+      </c>
+      <c r="E170" t="str">
+        <v>audio-container__feature</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>audioItem.news</v>
+      </c>
+      <c r="B171" t="str">
+        <v>audio-container__new-cn</v>
+      </c>
+      <c r="C171" t="str">
+        <v>audio-container__new</v>
+      </c>
+      <c r="D171" t="str">
+        <v>audio-container__new</v>
+      </c>
+      <c r="E171" t="str">
+        <v>audio-container__new</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>noSelectChapter.txt_001</v>
+      </c>
+      <c r="B172" t="str">
+        <v>请选择章节</v>
+      </c>
+      <c r="C172" t="str">
+        <v>Please select a chapter</v>
+      </c>
+      <c r="D172" t="str">
+        <v>請選擇章節</v>
+      </c>
+      <c r="E172" t="str">
+        <v>الرجاء تحديد فصل</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>noSelectChapter.txt_002</v>
+      </c>
+      <c r="B173" t="str">
+        <v>以便我们更精确地为您推荐教育资源</v>
+      </c>
+      <c r="C173" t="str">
+        <v>So that we can recommend better teaching materials for you</v>
+      </c>
+      <c r="D173" t="str">
+        <v>以便我們更精準地為您推薦教育資源</v>
+      </c>
+      <c r="E173" t="str">
+        <v>حتى يمكننا التوصية بمواد تعليمية أفضل لك</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>noSelectChapter.txt_003</v>
+      </c>
+      <c r="B174" t="str">
+        <v>去选择</v>
+      </c>
+      <c r="C174" t="str">
+        <v>Select now</v>
+      </c>
+      <c r="D174" t="str">
+        <v>去選擇</v>
+      </c>
+      <c r="E174" t="str">
+        <v>تحديد الآن</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>noSelectChapter.title</v>
+      </c>
+      <c r="B175" t="str">
+        <v>您还未设置教材章节呢</v>
+      </c>
+      <c r="C175" t="str">
+        <v>You haven't set up chapter yet</v>
+      </c>
+      <c r="D175" t="str">
+        <v>您還未設置教材章節呢</v>
+      </c>
+      <c r="E175" t="str">
+        <v>لم تقم بإعداد فصل حتى الآن</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>noSelectChapter.help_text</v>
+      </c>
+      <c r="B176" t="str">
+        <v>请帮助我们更好地推荐适合您的教育资源吧！</v>
+      </c>
+      <c r="C176" t="str">
+        <v>Help us better recommend educational resources!</v>
+      </c>
+      <c r="D176" t="str">
+        <v>請幫助我們更好地推薦適合您的教育資源吧！</v>
+      </c>
+      <c r="E176" t="str">
+        <v>ساعدنا على التوصية بشكل أفضل بالموارد التعليمية!</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>Insert.txt_001</v>
+      </c>
+      <c r="B177" t="str">
+        <v>插入成功</v>
+      </c>
+      <c r="C177" t="str">
+        <v>Insert successful</v>
+      </c>
+      <c r="D177" t="str">
+        <v>插入成功</v>
+      </c>
+      <c r="E177" t="str">
+        <v>إدراج ناجح</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>Insert.txt_002</v>
+      </c>
+      <c r="B178" t="str">
+        <v>插入失败</v>
+      </c>
+      <c r="C178" t="str">
+        <v>Insert failed</v>
+      </c>
+      <c r="D178" t="str">
+        <v>插入失敗</v>
+      </c>
+      <c r="E178" t="str">
+        <v>فشل الإدراج</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>Insert.txt_003</v>
+      </c>
+      <c r="B179" t="str">
+        <v>下载失败</v>
+      </c>
+      <c r="C179" t="str">
+        <v>Download failed</v>
+      </c>
+      <c r="D179" t="str">
+        <v>下載失敗</v>
+      </c>
+      <c r="E179" t="str">
+        <v>فشل الإدراج</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>Insert.insertIntoPPT</v>
+      </c>
+      <c r="B180" t="str">
+        <v>将本地{resourceName}插入到PPT中</v>
+      </c>
+      <c r="C180" t="str">
+        <v>Insert local {resourceName} into PPT</v>
+      </c>
+      <c r="D180" t="str">
+        <v>将本地{resourceName}插入到PPT中</v>
+      </c>
+      <c r="E180" t="str">
+        <v>PPT أدخل {resourceName} المحلي في</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>Page.txt_001</v>
+      </c>
+      <c r="B181" t="str">
+        <v>返回至第一页</v>
+      </c>
+      <c r="C181" t="str">
+        <v>First page</v>
+      </c>
+      <c r="D181" t="str">
+        <v>返回至第壹頁</v>
+      </c>
+      <c r="E181" t="str">
+        <v>الصفحة الأولى</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>Page.txt_002</v>
+      </c>
+      <c r="B182" t="str">
+        <v>跳转至末尾页</v>
+      </c>
+      <c r="C182" t="str">
+        <v>Last Page</v>
+      </c>
+      <c r="D182" t="str">
+        <v>跳轉至末尾頁</v>
+      </c>
+      <c r="E182" t="str">
+        <v>الصفحة الأخيرة</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>Page.prePage</v>
+      </c>
+      <c r="B183" t="str">
+        <v>上一页</v>
+      </c>
+      <c r="C183" t="str">
+        <v>Previous page</v>
+      </c>
+      <c r="D183" t="str">
+        <v>上一頁</v>
+      </c>
+      <c r="E183" t="str">
+        <v>الصفحة السابقة</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>Page.nextPage</v>
+      </c>
+      <c r="B184" t="str">
+        <v>下一页</v>
+      </c>
+      <c r="C184" t="str">
+        <v>Next page</v>
+      </c>
+      <c r="D184" t="str">
+        <v>下一頁</v>
+      </c>
+      <c r="E184" t="str">
+        <v>الصفحة التالية</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>Page.symbol</v>
+      </c>
+      <c r="B185" t="str">
+        <v>/</v>
+      </c>
+      <c r="C185" t="str">
+        <v>/</v>
+      </c>
+      <c r="D185" t="str">
+        <v>/</v>
+      </c>
+      <c r="E185" t="str">
+        <v>هن</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>noOpen.title</v>
+      </c>
+      <c r="B186" t="str">
+        <v>抱歉~暂未开放自主上传此类资源</v>
+      </c>
+      <c r="C186" t="str">
+        <v>Sorry ~ This kind of resources are not open for uploading</v>
+      </c>
+      <c r="D186" t="str">
+        <v>抱歉~暫未開放自主上傳此類資源</v>
+      </c>
+      <c r="E186" t="str">
+        <v>عذرًا ~ هذا النوع من الموارد غير مفتوح للتحميل</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>noResource.stillConstructing</v>
+      </c>
+      <c r="B187" t="str">
+        <v>还在疯狂的建设中</v>
+      </c>
+      <c r="C187" t="str">
+        <v>still under construction</v>
+      </c>
+      <c r="D187" t="str">
+        <v>還在瘋狂的建設中</v>
+      </c>
+      <c r="E187" t="str">
+        <v>لا يزال قيد الإنشاء</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>lessResource.noMore</v>
+      </c>
+      <c r="B188" t="str">
+        <v>当前章节没有更多了</v>
+      </c>
+      <c r="C188" t="str">
+        <v>No more in the current chapter</v>
+      </c>
+      <c r="D188" t="str">
+        <v>當前章節沒有更多了</v>
+      </c>
+      <c r="E188" t="str">
+        <v>لا يوجد المزيد في الفصل الحالي</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>enjoyText.share_txt_001</v>
+      </c>
+      <c r="B189" t="str">
+        <v>知识创造价值，分享让知识传递</v>
+      </c>
+      <c r="C189" t="str">
+        <v>Knowledge creates value, sharing allows knowledge to pass</v>
+      </c>
+      <c r="D189" t="str">
+        <v>知識創造價值，分享讓知識傳遞</v>
+      </c>
+      <c r="E189" t="str">
+        <v>المعرفة تنشئ قيمة، وتسمح المشاركة بمرور المعرفة</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>enjoyText.share_txt_002</v>
+      </c>
+      <c r="B190" t="str">
+        <v>分享到我的作品</v>
+      </c>
+      <c r="C190" t="str">
+        <v>Share to my works</v>
+      </c>
+      <c r="D190" t="str">
+        <v>分享到我的作品</v>
+      </c>
+      <c r="E190" t="str">
+        <v>حصة بلدي يعمل</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>searchTip.in</v>
+      </c>
+      <c r="B191" t="str">
+        <v>在</v>
+      </c>
+      <c r="C191" t="str">
+        <v>under</v>
+      </c>
+      <c r="D191" t="str">
+        <v>在</v>
+      </c>
+      <c r="E191" t="str">
+        <v>ضمن</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>searchTip.category</v>
+      </c>
+      <c r="B192" t="str">
+        <v>分类下</v>
+      </c>
+      <c r="C192" t="str">
+        <v/>
+      </c>
+      <c r="D192" t="str">
+        <v>分類下</v>
+      </c>
+      <c r="E192" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>searchTip.result</v>
+      </c>
+      <c r="B193" t="str">
+        <v>共有{count}个与{keyWord}相关的搜索结果</v>
+      </c>
+      <c r="C193" t="str">
+        <v>{count} result(s) found for {keyWord}.</v>
+      </c>
+      <c r="D193" t="str">
+        <v>共有{count}個與{keyWord}相關的搜索結果</v>
+      </c>
+      <c r="E193" t="str">
+        <v>{count} نتيجة (نتائج) تم العثور عليها لـ {keyWord}.</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>searchInput.search101</v>
+      </c>
+      <c r="B194" t="str">
+        <v>101搜索</v>
+      </c>
+      <c r="C194" t="str">
+        <v>101 Search</v>
+      </c>
+      <c r="D194" t="str">
+        <v>101搜索</v>
+      </c>
+      <c r="E194" t="str">
+        <v xml:space="preserve">101 بحث </v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>searchInput.searchBaidu</v>
+      </c>
+      <c r="B195" t="str">
+        <v>百度搜索</v>
+      </c>
+      <c r="C195" t="str">
+        <v>Baidu Search</v>
+      </c>
+      <c r="D195" t="str">
+        <v>百度搜索</v>
+      </c>
+      <c r="E195" t="str">
+        <v>Baidu بحث</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>disney.insert</v>
+      </c>
+      <c r="B196" t="str">
+        <v>插入</v>
+      </c>
+      <c r="C196" t="str">
+        <v>Insert</v>
+      </c>
+      <c r="D196" t="str">
+        <v>插入</v>
+      </c>
+      <c r="E196" t="str">
+        <v>إدراج</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>disney.preview</v>
+      </c>
+      <c r="B197" t="str">
+        <v>预览</v>
+      </c>
+      <c r="C197" t="str">
+        <v>Preview</v>
+      </c>
+      <c r="D197" t="str">
+        <v>預覽</v>
+      </c>
+      <c r="E197" t="str">
+        <v>معاينة</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>disney.create</v>
+      </c>
+      <c r="B198" t="str">
+        <v>创建</v>
+      </c>
+      <c r="C198" t="str">
+        <v>Create</v>
+      </c>
+      <c r="D198" t="str">
+        <v>创建</v>
+      </c>
+      <c r="E198" t="str">
+        <v>خلق</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>disney.all_type</v>
+      </c>
+      <c r="B199" t="str">
+        <v>所有分类</v>
+      </c>
+      <c r="C199" t="str">
+        <v>All</v>
+      </c>
+      <c r="D199" t="str">
+        <v>所有分類</v>
+      </c>
+      <c r="E199" t="str">
+        <v>الكل</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>disney.type</v>
+      </c>
+      <c r="B200" t="str">
+        <v>类别</v>
+      </c>
+      <c r="C200" t="str">
+        <v>Category</v>
+      </c>
+      <c r="D200" t="str">
+        <v>類別</v>
+      </c>
+      <c r="E200" t="str">
+        <v>الفئة</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>disney.interactive</v>
+      </c>
+      <c r="B201" t="str">
+        <v>课堂活动</v>
+      </c>
+      <c r="C201" t="str">
+        <v>Activities</v>
+      </c>
+      <c r="D201" t="str">
+        <v>課堂活動</v>
+      </c>
+      <c r="E201" t="str">
+        <v>الأنشطة</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>disney.exclusive_video</v>
+      </c>
+      <c r="B202" t="str">
+        <v>迪士尼授权专属视频</v>
+      </c>
+      <c r="C202" t="str">
+        <v>Disney Authorized Videos</v>
+      </c>
+      <c r="D202" t="str">
+        <v>迪士尼授權專屬視頻</v>
+      </c>
+      <c r="E202" t="str">
+        <v>فيديوهات ديزني المعتمدة</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>disney.authorize_video</v>
+      </c>
+      <c r="B203" t="str">
+        <v>英语视频</v>
+      </c>
+      <c r="C203" t="str">
+        <v>English video</v>
+      </c>
+      <c r="D203" t="str">
+        <v>英語視頻</v>
+      </c>
+      <c r="E203" t="str">
+        <v>فيديو عربي</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>disney.skin_center</v>
+      </c>
+      <c r="B204" t="str">
+        <v>皮肤中心</v>
+      </c>
+      <c r="C204" t="str">
+        <v>Skin Center</v>
+      </c>
+      <c r="D204" t="str">
+        <v>皮膚中心</v>
+      </c>
+      <c r="E204" t="str">
+        <v>مركز الجلد</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>disney.video</v>
+      </c>
+      <c r="B205" t="str">
+        <v>视频</v>
+      </c>
+      <c r="C205" t="str">
+        <v>Videos</v>
+      </c>
+      <c r="D205" t="str">
+        <v>視頻</v>
+      </c>
+      <c r="E205" t="str">
+        <v>مقاطع الفيديو</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>disney.visitAll</v>
+      </c>
+      <c r="B206" t="str">
+        <v>查看全部</v>
+      </c>
+      <c r="C206" t="str">
+        <v>View All</v>
+      </c>
+      <c r="D206" t="str">
+        <v>查看全部</v>
+      </c>
+      <c r="E206" t="str">
+        <v>عرض الجميع</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>disney.visitMore</v>
+      </c>
+      <c r="B207" t="str">
+        <v>查看更多</v>
+      </c>
+      <c r="C207" t="str">
+        <v>View More</v>
+      </c>
+      <c r="D207" t="str">
+        <v>查看更多</v>
+      </c>
+      <c r="E207" t="str">
+        <v>عرض المزيد</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>disney.use_count</v>
+      </c>
+      <c r="B208" t="str">
+        <v>使用次数</v>
+      </c>
+      <c r="C208" t="str">
+        <v>Frequency</v>
+      </c>
+      <c r="D208" t="str">
+        <v>使用次數</v>
+      </c>
+      <c r="E208" t="str">
+        <v>التكرار</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>disney.update_time</v>
+      </c>
+      <c r="B209" t="str">
+        <v>更新时间</v>
+      </c>
+      <c r="C209" t="str">
+        <v>Time</v>
+      </c>
+      <c r="D209" t="str">
+        <v>更新時間</v>
+      </c>
+      <c r="E209" t="str">
+        <v>الوقت</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>disney.name</v>
+      </c>
+      <c r="B210" t="str">
+        <v>名称</v>
+      </c>
+      <c r="C210" t="str">
+        <v>Name</v>
+      </c>
+      <c r="D210" t="str">
+        <v>名稱</v>
+      </c>
+      <c r="E210" t="str">
+        <v>الاسم</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>disney.search_content</v>
+      </c>
+      <c r="B211" t="str">
+        <v>在&lt;span&gt;{{%type}}&lt;/span&gt;分类下，共有&lt;span&gt;{{%num}}&lt;/span&gt;个与&lt;span&gt;“{{%s}}”&lt;/span&gt;相关的搜索结果</v>
+      </c>
+      <c r="C211" t="str">
+        <v>Under &lt;span&gt;{{%type}}&lt;/span&gt;, &lt;span&gt;{{%num}}&lt;/span&gt; result(s) found for &lt;span&gt;"{{%s}}"&lt;/span&gt;.</v>
+      </c>
+      <c r="D211" t="str">
+        <v>在&lt;span&gt;{{%type}}&lt;/span&gt;分類下，共有&lt;span&gt;{{%num}}&lt;/span&gt;個與&lt;span&gt;“{{%s}}”&lt;/span&gt;相關的搜索結果</v>
+      </c>
+      <c r="E211" t="str">
+        <v>ضمن &lt;span&gt;{{%type}}&lt;/span&gt;, &lt;span&gt;{{%num}}&lt;/span&gt; نتيجة (نتائج) تم العثور عليها لـ &lt;span&gt;"{{%s}}"&lt;/span&gt;.</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>disney.all_style</v>
+      </c>
+      <c r="B212" t="str">
+        <v>全部主题</v>
+      </c>
+      <c r="C212" t="str">
+        <v>All Themes</v>
+      </c>
+      <c r="D212" t="str">
+        <v>全部主題</v>
+      </c>
+      <c r="E212" t="str">
+        <v>جميع النُسق</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>disney.praise</v>
+      </c>
+      <c r="B213" t="str">
+        <v>赞</v>
+      </c>
+      <c r="C213" t="str">
+        <v xml:space="preserve">Like </v>
+      </c>
+      <c r="D213" t="str">
+        <v>贊</v>
+      </c>
+      <c r="E213" t="str">
+        <v xml:space="preserve">إعجاب </v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>disney.full_screen</v>
+      </c>
+      <c r="B214" t="str">
+        <v>全屏预览</v>
+      </c>
+      <c r="C214" t="str">
+        <v>Full Screen</v>
+      </c>
+      <c r="D214" t="str">
+        <v>全屏預覽</v>
+      </c>
+      <c r="E214" t="str">
+        <v>ملء الشاشة</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>disney.login_notify</v>
+      </c>
+      <c r="B215" t="str">
+        <v>提示：特色专区资源，需登录后使用</v>
+      </c>
+      <c r="C215" t="str">
+        <v>Log in to use Disney resources.</v>
+      </c>
+      <c r="D215" t="str">
+        <v>提示：迪士尼專區資源，需登入後使用</v>
+      </c>
+      <c r="E215" t="str">
+        <v>تسجيل الدخول لاستخدام موارد ديزني.</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>disney.no_login</v>
+      </c>
+      <c r="B216" t="str">
+        <v>您当前还没有登录</v>
+      </c>
+      <c r="C216" t="str">
+        <v>You are not logged in.</v>
+      </c>
+      <c r="D216" t="str">
+        <v>您當前還沒有登錄</v>
+      </c>
+      <c r="E216" t="str">
+        <v>لم يتم تسجيل دخولك.</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>disney.more_skin</v>
+      </c>
+      <c r="B217" t="str">
+        <v>更多皮肤</v>
+      </c>
+      <c r="C217" t="str">
+        <v>More Skins</v>
+      </c>
+      <c r="D217" t="str">
+        <v>更多皮膚</v>
+      </c>
+      <c r="E217" t="str">
+        <v>مزيد من الأسطح</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>disney.more_theme</v>
+      </c>
+      <c r="B218" t="str">
+        <v>更多主题</v>
+      </c>
+      <c r="C218" t="str">
+        <v>More</v>
+      </c>
+      <c r="D218" t="str">
+        <v>更多主題</v>
+      </c>
+      <c r="E218" t="str">
+        <v>المزيد من المواضيع</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>disney.not_find</v>
+      </c>
+      <c r="B219" t="str">
+        <v>目前没有找到你要的资源</v>
+      </c>
+      <c r="C219" t="str">
+        <v>No results found.</v>
+      </c>
+      <c r="D219" t="str">
+        <v>現時沒有找到你要的資源</v>
+      </c>
+      <c r="E219" t="str">
+        <v>لم يتم العثور على نتائج.</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>disney.you_can_try</v>
+      </c>
+      <c r="B220" t="str">
+        <v>你可以试试其他类型的资源；</v>
+      </c>
+      <c r="C220" t="str">
+        <v>You can try different types of resources.</v>
+      </c>
+      <c r="D220" t="str">
+        <v>你可以試試其他類型的資源；</v>
+      </c>
+      <c r="E220" t="str">
+        <v>يمكنك تجربة أنواع مختلفة من الموارد.</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>disney.search_placeholder</v>
+      </c>
+      <c r="B221" t="str">
+        <v>搜索你想要的</v>
+      </c>
+      <c r="C221" t="str">
+        <v>Enter keywords</v>
+      </c>
+      <c r="D221" t="str">
+        <v>搜索你想要的</v>
+      </c>
+      <c r="E221" t="str">
+        <v>إدخال الكلمات الرئيسية</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>disney.ipzone_placeholder</v>
+      </c>
+      <c r="B222" t="str">
+        <v>搜索你想要的</v>
+      </c>
+      <c r="C222" t="str">
+        <v>Search for resources you want</v>
+      </c>
+      <c r="D222" t="str">
+        <v>搜索你想要的</v>
+      </c>
+      <c r="E222" t="str">
+        <v>البحث عن الموارد التي تريد</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>disney.questions</v>
+      </c>
+      <c r="B223" t="str">
+        <v>基础习题</v>
+      </c>
+      <c r="C223" t="str">
+        <v>basic exercises</v>
+      </c>
+      <c r="D223" t="str">
+        <v>基礎習題</v>
+      </c>
+      <c r="E223" t="str">
+        <v>التمارين الأساسية</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>disney.questions_interactive</v>
+      </c>
+      <c r="B224" t="str">
+        <v>趣味习题</v>
+      </c>
+      <c r="C224" t="str">
+        <v>interesting exercises</v>
+      </c>
+      <c r="D224" t="str">
+        <v>趣味習題</v>
+      </c>
+      <c r="E224" t="str">
+        <v>تمارين مثيرة للاهتمام</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>disney.questions_template</v>
+      </c>
+      <c r="B225" t="str">
+        <v>习题模板</v>
+      </c>
+      <c r="C225" t="str">
+        <v>Exercises</v>
+      </c>
+      <c r="D225" t="str">
+        <v>习题模板</v>
+      </c>
+      <c r="E225" t="str">
+        <v>نموذج التمرين</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>disney.confirm</v>
+      </c>
+      <c r="B226" t="str">
+        <v>确定</v>
+      </c>
+      <c r="C226" t="str">
+        <v>OK</v>
+      </c>
+      <c r="D226" t="str">
+        <v>確定</v>
+      </c>
+      <c r="E226" t="str">
+        <v>موافق</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>disney.tips</v>
+      </c>
+      <c r="B227" t="str">
+        <v>温馨提示</v>
+      </c>
+      <c r="C227" t="str">
+        <v>tips</v>
+      </c>
+      <c r="D227" t="str">
+        <v>溫馨提示</v>
+      </c>
+      <c r="E227" t="str">
+        <v>نصائح</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>disney.tips_desc</v>
+      </c>
+      <c r="B228" t="str">
+        <v>您的版本过旧，无法插入最新资源，快去更新后体验吧~</v>
+      </c>
+      <c r="C228" t="str">
+        <v>Your version is too old to insert the latest resources. Go to update and experience it~</v>
+      </c>
+      <c r="D228" t="str">
+        <v>您的版本過舊，無法插入最新資源，快去更新後體驗吧~</v>
+      </c>
+      <c r="E228" t="str">
+        <v>أنت تستخدم إصدارًا منخفضًا جدًا. يُرجى ترقية الإصدار قبل استخدامه!</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>disney.update_now</v>
+      </c>
+      <c r="B229" t="str">
+        <v>立即更新</v>
+      </c>
+      <c r="C229" t="str">
+        <v>Update now</v>
+      </c>
+      <c r="D229" t="str">
+        <v>立即更新</v>
+      </c>
+      <c r="E229" t="str">
+        <v>تحديث فوري</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>disney.encourage_desc</v>
+      </c>
+      <c r="B230" t="str">
+        <v>该效果可在放映PPT后点击：互动工具&gt;表扬 后随机出现，给学生满满的惊喜感和荣誉感！</v>
+      </c>
+      <c r="C230" t="str">
+        <v>Show ppt: Interactive Tools &gt; praise appears at will, surprise and honor students!</v>
+      </c>
+      <c r="D230" t="str">
+        <v>該效果可在放映PPT後點擊：互動工具&gt;表揚 後隨機出現，給學生滿滿的驚喜感和榮譽感！</v>
+      </c>
+      <c r="E230" t="str">
+        <v>هذا التأثير يمكن أن تظهر بشكل عشوائي بعد عرض جزء لكل تريليون</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>disney.team_competition</v>
+      </c>
+      <c r="B231" t="str">
+        <v>团队竞赛</v>
+      </c>
+      <c r="C231" t="str">
+        <v>Team Competition</v>
+      </c>
+      <c r="D231" t="str">
+        <v>團隊競賽</v>
+      </c>
+      <c r="E231" t="str">
+        <v>فريق المنافسة</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>disney.random_rollcall</v>
+      </c>
+      <c r="B232" t="str">
+        <v>随机点名</v>
+      </c>
+      <c r="C232" t="str">
+        <v>Random Roll Call</v>
+      </c>
+      <c r="D232" t="str">
+        <v>隨機點名</v>
+      </c>
+      <c r="E232" t="str">
+        <v>اسم عشوائي</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>disney.class_encourage</v>
+      </c>
+      <c r="B233" t="str">
+        <v>课堂鼓励</v>
+      </c>
+      <c r="C233" t="str">
+        <v>Classroom Encouragement</v>
+      </c>
+      <c r="D233" t="str">
+        <v>課堂鼓勵</v>
+      </c>
+      <c r="E233" t="str">
+        <v>تشجيع الفصول الدراسية</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>disney.disneyResponder</v>
+      </c>
+      <c r="B234" t="str">
+        <v>抢答工具</v>
+      </c>
+      <c r="C234" t="str">
+        <v>Answer Tool</v>
+      </c>
+      <c r="D234" t="str">
+        <v>搶答工具</v>
+      </c>
+      <c r="E234" t="str">
+        <v>أداة الرد</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>disney.encourage</v>
+      </c>
+      <c r="B235" t="str">
+        <v>鼓励</v>
+      </c>
+      <c r="C235" t="str">
+        <v>Encouragement</v>
+      </c>
+      <c r="D235" t="str">
+        <v>鼓勵</v>
+      </c>
+      <c r="E235" t="str">
+        <v>شجع</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>disney.responder</v>
+      </c>
+      <c r="B236" t="str">
+        <v>抢答</v>
+      </c>
+      <c r="C236" t="str">
+        <v>Answer</v>
+      </c>
+      <c r="D236" t="str">
+        <v>搶答</v>
+      </c>
+      <c r="E236" t="str">
+        <v>الرد السريع</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>disney.fl_remark</v>
+      </c>
+      <c r="B237" t="str">
+        <v>复仇者联盟邀你组队竞赛啦~</v>
+      </c>
+      <c r="C237" t="str">
+        <v>Avengers invite you to team up~</v>
+      </c>
+      <c r="D237" t="str">
+        <v>復仇者聯盟邀妳組隊競賽啦~</v>
+      </c>
+      <c r="E237" t="str">
+        <v>دوري المنتقمون يدعوك إلى تنظيم المسابقة</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>disney.ml_remark</v>
+      </c>
+      <c r="B238" t="str">
+        <v>可汗大点兵~抽学生课堂互动！</v>
+      </c>
+      <c r="C238" t="str">
+        <v>Khan big spot soldier ~ smoke student classroom interaction!</v>
+      </c>
+      <c r="D238" t="str">
+        <v>可汗大點兵~抽學生課堂互動！</v>
+      </c>
+      <c r="E238" t="str">
+        <v>ما هو نوع من التفاعل الصفي ؟</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>disney.bx_remark</v>
+      </c>
+      <c r="B239" t="str">
+        <v>放映态下&gt;互动工具&gt;表扬</v>
+      </c>
+      <c r="C239" t="str">
+        <v>Show &gt; Interactive Tools &gt; praise</v>
+      </c>
+      <c r="D239" t="str">
+        <v>放映態下&gt;互動工具&gt;表揚</v>
+      </c>
+      <c r="E239" t="str">
+        <v>أداة تفاعلية في حالة العرض</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>disney.mq_remark</v>
+      </c>
+      <c r="B240" t="str">
+        <v>与赛车手米奇一起抢答吧~</v>
+      </c>
+      <c r="C240" t="str">
+        <v>Join race car driver Mickey in the contest~</v>
+      </c>
+      <c r="D240" t="str">
+        <v>與賽車手米奇壹起搶答吧~</v>
+      </c>
+      <c r="E240" t="str">
+        <v>مع ميكي ، متسابق</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>disney.use_now</v>
+      </c>
+      <c r="B241" t="str">
+        <v>立即使用</v>
+      </c>
+      <c r="C241" t="str">
+        <v>Use it now</v>
+      </c>
+      <c r="D241" t="str">
+        <v>立即使用</v>
+      </c>
+      <c r="E241" t="str">
+        <v>استخدام فوري</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>disney.login_use</v>
+      </c>
+      <c r="B242" t="str">
+        <v>登录后即可使用</v>
+      </c>
+      <c r="C242" t="str">
+        <v>Please log in</v>
+      </c>
+      <c r="D242" t="str">
+        <v>登錄後即可使用</v>
+      </c>
+      <c r="E242" t="str">
+        <v>بعد تسجيل الدخول يمكنك استخدام</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>disney.resource</v>
+      </c>
+      <c r="B243" t="str">
+        <v>资源类型</v>
+      </c>
+      <c r="C243" t="str">
+        <v>Resource Type</v>
+      </c>
+      <c r="D243" t="str">
+        <v>資源類型</v>
+      </c>
+      <c r="E243" t="str">
+        <v>أنواع الموارد</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>disney.current</v>
+      </c>
+      <c r="B244" t="str">
+        <v>当前</v>
+      </c>
+      <c r="C244" t="str">
+        <v>Current</v>
+      </c>
+      <c r="D244" t="str">
+        <v>當前</v>
+      </c>
+      <c r="E244" t="str">
+        <v>حالي</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>disney.ipzone</v>
+      </c>
+      <c r="B245" t="str">
+        <v>特色专区</v>
+      </c>
+      <c r="C245" t="str">
+        <v>Characteristic Zone</v>
+      </c>
+      <c r="D245" t="str">
+        <v>特色專區</v>
+      </c>
+      <c r="E245" t="str">
+        <v>منطقة مميزة</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>ads.not_remind</v>
+      </c>
+      <c r="B246" t="str">
+        <v>不再提醒</v>
+      </c>
+      <c r="C246" t="str">
+        <v>No remind</v>
+      </c>
+      <c r="D246" t="str">
+        <v>不再提醒</v>
+      </c>
+      <c r="E246" t="str">
+        <v xml:space="preserve">ا أذكر </v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>grades.primary_school</v>
+      </c>
+      <c r="B247" t="str">
+        <v>小学</v>
+      </c>
+      <c r="C247" t="str">
+        <v>Primary School</v>
+      </c>
+      <c r="D247" t="str">
+        <v>小学</v>
+      </c>
+      <c r="E247" t="str">
+        <v>المدرسة الابتدائية</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>grades.middle_school</v>
+      </c>
+      <c r="B248" t="str">
+        <v>初中</v>
+      </c>
+      <c r="C248" t="str">
+        <v>Middle School</v>
+      </c>
+      <c r="D248" t="str">
+        <v>初中</v>
+      </c>
+      <c r="E248" t="str">
+        <v>جونيور</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>grades.high_school</v>
+      </c>
+      <c r="B249" t="str">
+        <v>高中</v>
+      </c>
+      <c r="C249" t="str">
+        <v>High School</v>
+      </c>
+      <c r="D249" t="str">
+        <v>高中</v>
+      </c>
+      <c r="E249" t="str">
+        <v>المدرسة الثانوية</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>resourceSet.saveIntoNetDisk</v>
+      </c>
+      <c r="B250" t="str">
+        <v>保存到网盘</v>
+      </c>
+      <c r="C250" t="str">
+        <v>Save to network disk</v>
+      </c>
+      <c r="D250" t="str">
+        <v>保存到網盤</v>
+      </c>
+      <c r="E250" t="str">
+        <v>حفظ على القرص</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>resourceSet.tips</v>
+      </c>
+      <c r="B251" t="str">
+        <v>提示</v>
+      </c>
+      <c r="C251" t="str">
+        <v>Tips</v>
+      </c>
+      <c r="D251" t="str">
+        <v>提示</v>
+      </c>
+      <c r="E251" t="str">
+        <v>تلميح</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>resourceSet.OK</v>
+      </c>
+      <c r="B252" t="str">
+        <v>确定</v>
+      </c>
+      <c r="C252" t="str">
+        <v>OK</v>
+      </c>
+      <c r="D252" t="str">
+        <v>確定</v>
+      </c>
+      <c r="E252" t="str">
+        <v>حدد</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>resourceSet.finish</v>
+      </c>
+      <c r="B253" t="str">
+        <v>确认</v>
+      </c>
+      <c r="C253" t="str">
+        <v>OK</v>
+      </c>
+      <c r="D253" t="str">
+        <v>確認</v>
+      </c>
+      <c r="E253" t="str">
+        <v>حدد</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>resourceSet.save</v>
+      </c>
+      <c r="B254" t="str">
+        <v>保存</v>
+      </c>
+      <c r="C254" t="str">
+        <v>Save</v>
+      </c>
+      <c r="D254" t="str">
+        <v>保存</v>
+      </c>
+      <c r="E254" t="str">
+        <v>حفظ</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>resourceSet.saving</v>
+      </c>
+      <c r="B255" t="str">
+        <v>保存中......</v>
+      </c>
+      <c r="C255" t="str">
+        <v>Saving......</v>
+      </c>
+      <c r="D255" t="str">
+        <v>保存中......</v>
+      </c>
+      <c r="E255" t="str">
+        <v>حفظ......</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>resourceSet.close</v>
+      </c>
+      <c r="B256" t="str">
+        <v>关闭</v>
+      </c>
+      <c r="C256" t="str">
+        <v>Close</v>
+      </c>
+      <c r="D256" t="str">
+        <v>關閉</v>
+      </c>
+      <c r="E256" t="str">
+        <v>مغلق</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>resourceSet.succ</v>
+      </c>
+      <c r="B257" t="str">
+        <v>资源集成功上传到您的网盘“专享文件夹”中</v>
+      </c>
+      <c r="C257" t="str">
+        <v>The resource set was successfully uploaded to your network disk "exclusive folder"</v>
+      </c>
+      <c r="D257" t="str">
+        <v>資源集成功上傳到您的網盤“專享文件夾”中</v>
+      </c>
+      <c r="E257" t="str">
+        <v>مجموعة الموارد بنجاح تحميلها إلى مجلد خاص على القرص الخاص بك</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>resourceSet.fail</v>
+      </c>
+      <c r="B258" t="str">
+        <v>资源集上传网盘失败，请重试</v>
+      </c>
+      <c r="C258" t="str">
+        <v>Failed to upload resource set to network disk. Please try again</v>
+      </c>
+      <c r="D258" t="str">
+        <v/>
+      </c>
+      <c r="E258" t="str">
+        <v>مجموعة الموارد تحميل القرص فشل ، يرجى المحاولة مرة أخرى</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>resourceSet.loginTips</v>
+      </c>
+      <c r="B259" t="str">
+        <v>请先登录再进行网盘操作</v>
+      </c>
+      <c r="C259" t="str">
+        <v>Please log in before operating the network disk</v>
+      </c>
+      <c r="D259" t="str">
+        <v>請先登錄再進行網盤操作</v>
+      </c>
+      <c r="E259" t="str">
+        <v>يرجى تسجيل الدخول ثم تشغيل القرص</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>resourceSet.cancel</v>
+      </c>
+      <c r="B260" t="str">
+        <v>取消</v>
+      </c>
+      <c r="C260" t="str">
+        <v>Cancel</v>
+      </c>
+      <c r="D260" t="str">
+        <v>取消</v>
+      </c>
+      <c r="E260" t="str">
+        <v>ألغى</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>resourceSet.confirm</v>
+      </c>
+      <c r="B261" t="str">
+        <v>确定将资源保存到网盘？</v>
+      </c>
+      <c r="C261" t="str">
+        <v>Are you sure to save the resource to the network disk?</v>
+      </c>
+      <c r="D261" t="str">
+        <v>確定將資源保存到網盤？</v>
+      </c>
+      <c r="E261" t="str">
+        <v>هل أنت متأكد من حفظ الموارد على القرص ؟</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>resourceSet.full</v>
+      </c>
+      <c r="B262" t="str">
+        <v>网盘空间不足，请调整网盘文件后再次尝试，谢谢！​</v>
+      </c>
+      <c r="C262" t="str">
+        <v>Network disk space is insufficient, please adjust the network disk file and try again, thank you!</v>
+      </c>
+      <c r="D262" t="str">
+        <v>網盤空間不足，請調整網盤文件後再次嘗試，謝謝！</v>
+      </c>
+      <c r="E262" t="str">
+        <v>شبكة القرص الفضاء غير كافية ، يرجى تعديل ملف القرص بعد محاولة أخرى ، شكرا لك</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>resourceSet.partSucc</v>
+      </c>
+      <c r="B263" t="str">
+        <v>网盘已满，资源集部分文件成功上传到您的网盘“专享文件夹”中</v>
+      </c>
+      <c r="C263" t="str">
+        <v>The network disk is full. Some files of the resource set have been successfully uploaded to your "exclusive folder"</v>
+      </c>
+      <c r="D263" t="str">
+        <v>網盤已滿，資源集部分文件成功上傳到您的網盤“專享文件夾”中</v>
+      </c>
+      <c r="E263" t="str">
+        <v>القرص هو الكامل ، مجموعة الموارد جزء من الملف تم تحميلها بنجاح إلى مجلد خاص</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>globalSearch.all</v>
+      </c>
+      <c r="B264" t="str">
+        <v>全部</v>
+      </c>
+      <c r="C264" t="str">
+        <v>all</v>
+      </c>
+      <c r="D264" t="str">
+        <v>全部</v>
+      </c>
+      <c r="E264" t="str">
+        <v>الكل</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>globalSearch.courseware</v>
+      </c>
+      <c r="B265" t="str">
+        <v>课件</v>
+      </c>
+      <c r="C265" t="str">
+        <v>Courseware</v>
+      </c>
+      <c r="D265" t="str">
+        <v>課件</v>
+      </c>
+      <c r="E265" t="str">
+        <v>المناهج التعليمية</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>globalSearch.aianimation</v>
+      </c>
+      <c r="B266" t="str">
+        <v>AI动画</v>
+      </c>
+      <c r="C266" t="str">
+        <v>AI Animation</v>
+      </c>
+      <c r="D266" t="str">
+        <v>AI動畫</v>
+      </c>
+      <c r="E266" t="str">
+        <v>الرسوم المتحركة AI</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>globalSearch.coursewares</v>
+      </c>
+      <c r="B267" t="str">
+        <v>课件</v>
+      </c>
+      <c r="C267" t="str">
+        <v>Courseware</v>
+      </c>
+      <c r="D267" t="str">
+        <v>課件</v>
+      </c>
+      <c r="E267" t="str">
+        <v>المناهج التعليمية</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>globalSearch.tool</v>
+      </c>
+      <c r="B268" t="str">
+        <v>学科工具</v>
+      </c>
+      <c r="C268" t="str">
+        <v>Subject Tools</v>
+      </c>
+      <c r="D268" t="str">
+        <v>學科工具</v>
+      </c>
+      <c r="E268" t="str">
+        <v>تولز</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>globalSearch.microcourse</v>
+      </c>
+      <c r="B269" t="str">
+        <v>微课</v>
+      </c>
+      <c r="C269" t="str">
+        <v>Microcourse</v>
+      </c>
+      <c r="D269" t="str">
+        <v>微課</v>
+      </c>
+      <c r="E269" t="str">
+        <v>المناهج الدقيقة</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>globalSearch.experience</v>
+      </c>
+      <c r="B270" t="str">
+        <v>实验</v>
+      </c>
+      <c r="C270" t="str">
+        <v>Physics Experiments</v>
+      </c>
+      <c r="D270" t="str">
+        <v>實驗</v>
+      </c>
+      <c r="E270" t="str">
+        <v>تجريبي</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>globalSearch.media</v>
+      </c>
+      <c r="B271" t="str">
+        <v>多媒体</v>
+      </c>
+      <c r="C271" t="str">
+        <v>Multimedia</v>
+      </c>
+      <c r="D271" t="str">
+        <v>多媒體</v>
+      </c>
+      <c r="E271" t="str">
+        <v>الميديا</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>globalSearch.threeD</v>
+      </c>
+      <c r="B272" t="str">
+        <v>3D资源</v>
+      </c>
+      <c r="C272" t="str">
+        <v>3D Resources</v>
+      </c>
+      <c r="D272" t="str">
+        <v>3D資源</v>
+      </c>
+      <c r="E272" t="str">
+        <v xml:space="preserve">ثري دي </v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>globalSearch.exercise</v>
+      </c>
+      <c r="B273" t="str">
+        <v>习题/试卷</v>
+      </c>
+      <c r="C273" t="str">
+        <v>Exercises &amp; Test Papers</v>
+      </c>
+      <c r="D273" t="str">
+        <v>習題/試卷</v>
+      </c>
+      <c r="E273" t="str">
+        <v>رياضي</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>globalSearch.theme</v>
+      </c>
+      <c r="B274" t="str">
+        <v>美课大师</v>
+      </c>
+      <c r="C274" t="str">
+        <v>Themes</v>
+      </c>
+      <c r="D274" t="str">
+        <v>美課大師</v>
+      </c>
+      <c r="E274" t="str">
+        <v>الثيمات</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>globalSearch.physicalvideo</v>
+      </c>
+      <c r="B275" t="str">
+        <v>实验视频</v>
+      </c>
+      <c r="C275" t="str">
+        <v>Experiment Videos</v>
+      </c>
+      <c r="D275" t="str">
+        <v>實驗視頻</v>
+      </c>
+      <c r="E275" t="str">
+        <v>فيديوهات التجربة</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>globalSearch.physical3d</v>
+      </c>
+      <c r="B276" t="str">
+        <v>3D虚拟实验室</v>
+      </c>
+      <c r="C276" t="str">
+        <v>3D Virtual Lab</v>
+      </c>
+      <c r="D276" t="str">
+        <v>3D虛擬實驗室</v>
+      </c>
+      <c r="E276" t="str">
+        <v>المختبر الافتراضي ثلاثي الأبعاد</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>globalSearch.tools</v>
+      </c>
+      <c r="B277" t="str">
+        <v>工具</v>
+      </c>
+      <c r="C277" t="str">
+        <v>tools</v>
+      </c>
+      <c r="D277" t="str">
+        <v>工具</v>
+      </c>
+      <c r="E277" t="str">
+        <v>تولز</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>globalSearch.physical</v>
+      </c>
+      <c r="B278" t="str">
+        <v>物理</v>
+      </c>
+      <c r="C278" t="str">
+        <v>physical</v>
+      </c>
+      <c r="D278" t="str">
+        <v>物理</v>
+      </c>
+      <c r="E278" t="str">
+        <v>فيزيائي</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>globalSearch.chemistry</v>
+      </c>
+      <c r="B279" t="str">
+        <v>化学</v>
+      </c>
+      <c r="C279" t="str">
+        <v>chemistry</v>
+      </c>
+      <c r="D279" t="str">
+        <v>化學</v>
+      </c>
+      <c r="E279" t="str">
+        <v>الكيمياء .</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>globalSearch.user</v>
+      </c>
+      <c r="B280" t="str">
+        <v>用戶</v>
+      </c>
+      <c r="C280" t="str">
+        <v>user</v>
+      </c>
+      <c r="D280" t="str">
+        <v>用戶</v>
+      </c>
+      <c r="E280" t="str">
+        <v>اشترك</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>globalSearch.teachingmaterial</v>
+      </c>
+      <c r="B281" t="str">
+        <v>教材</v>
+      </c>
+      <c r="C281" t="str">
+        <v>Teaching material</v>
+      </c>
+      <c r="D281" t="str">
+        <v>教材</v>
+      </c>
+      <c r="E281" t="str">
+        <v>الكتب المدرسية</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>globalSearch.lessonplans</v>
+      </c>
+      <c r="B282" t="str">
+        <v>教案</v>
+      </c>
+      <c r="C282" t="str">
+        <v>Lessonplans</v>
+      </c>
+      <c r="D282" t="str">
+        <v>教案</v>
+      </c>
+      <c r="E282" t="str">
+        <v>برنامج ليسون</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>globalSearch.assets_video</v>
+      </c>
+      <c r="B283" t="str">
+        <v>视频</v>
+      </c>
+      <c r="C283" t="str">
+        <v>Video</v>
+      </c>
+      <c r="D283" t="str">
+        <v>視頻</v>
+      </c>
+      <c r="E283" t="str">
+        <v xml:space="preserve"> فيديو : . </v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>authorWorks.activity_homepage</v>
+      </c>
+      <c r="B284" t="str">
+        <v>活动首页</v>
+      </c>
+      <c r="C284" t="str">
+        <v>home</v>
+      </c>
+      <c r="D284" t="str">
+        <v>活動首頁</v>
+      </c>
+      <c r="E284" t="str">
+        <v>الصفحة الرئيسية النشطة</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>authorWorks.my_works</v>
+      </c>
+      <c r="B285" t="str">
+        <v>我的参赛作品</v>
+      </c>
+      <c r="C285" t="str">
+        <v>My entries</v>
+      </c>
+      <c r="D285" t="str">
+        <v>我的參賽作品</v>
+      </c>
+      <c r="E285" t="str">
+        <v>بلدي يعمل</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>authorWorks.my_selected_works</v>
+      </c>
+      <c r="B286" t="str">
+        <v>我的入选作品集</v>
+      </c>
+      <c r="C286" t="str">
+        <v>Selected works</v>
+      </c>
+      <c r="D286" t="str">
+        <v>我的入選作品集</v>
+      </c>
+      <c r="E286" t="str">
+        <v>بلدي مجموعة مختارة</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>authorWorks.selected_works</v>
+      </c>
+      <c r="B287" t="str">
+        <v>入选作品</v>
+      </c>
+      <c r="C287" t="str">
+        <v>selected</v>
+      </c>
+      <c r="D287" t="str">
+        <v>入選作品</v>
+      </c>
+      <c r="E287" t="str">
+        <v>أعمال مختارة</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>authorWorks.award_works</v>
+      </c>
+      <c r="B288" t="str">
+        <v>获奖作品</v>
+      </c>
+      <c r="C288" t="str">
+        <v>prize</v>
+      </c>
+      <c r="D288" t="str">
+        <v>獲獎作品</v>
+      </c>
+      <c r="E288" t="str">
+        <v>الحائز على جائزة العمل</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>authorWorks.praise</v>
+      </c>
+      <c r="B289" t="str">
+        <v>收获赞</v>
+      </c>
+      <c r="C289" t="str">
+        <v>praise</v>
+      </c>
+      <c r="D289" t="str">
+        <v>收穫贊</v>
+      </c>
+      <c r="E289" t="str">
+        <v>حصاد الحمد</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>authorWorks.used</v>
+      </c>
+      <c r="B290" t="str">
+        <v>被使用</v>
+      </c>
+      <c r="C290" t="str">
+        <v>used</v>
+      </c>
+      <c r="D290" t="str">
+        <v>被使用</v>
+      </c>
+      <c r="E290" t="str">
+        <v>تستخدم</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>authorWorks.no_more</v>
+      </c>
+      <c r="B291" t="str">
+        <v>没有更多了</v>
+      </c>
+      <c r="C291" t="str">
+        <v>no more</v>
+      </c>
+      <c r="D291" t="str">
+        <v>沒有更多了</v>
+      </c>
+      <c r="E291" t="str">
+        <v>لا أكثر</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
         <v>authorWorks.take_part_in</v>
       </c>
-      <c r="B45" t="str">
+      <c r="B292" t="str">
         <v>加入作品征集大赛，共建教学资源库</v>
       </c>
-      <c r="C45" t="str">
+      <c r="C292" t="str">
         <v>Join the competition of collecting works and build a teaching resource library</v>
       </c>
-      <c r="D45" t="str">
+      <c r="D292" t="str">
         <v>加入作品徵集大賽，共建教學資源庫</v>
       </c>
-      <c r="E45" t="str">
+      <c r="E292" t="str">
         <v>الانضمام إلى مسابقة جمع الأعمال ، وبناء قاعدة بيانات الموارد التعليمية</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>shareResource.share</v>
+      </c>
+      <c r="B293" t="str">
+        <v>分享</v>
+      </c>
+      <c r="C293" t="str">
+        <v>Share</v>
+      </c>
+      <c r="D293" t="str">
+        <v>分享</v>
+      </c>
+      <c r="E293" t="str">
+        <v>أنشرها</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>shareResource.scan_to_open</v>
+      </c>
+      <c r="B294" t="str">
+        <v>扫一扫二维码打开或分享给好友</v>
+      </c>
+      <c r="C294" t="str">
+        <v>Scan the QR code to open or share with friends</v>
+      </c>
+      <c r="D294" t="str">
+        <v>掃一掃二維碼打開或分享給好友</v>
+      </c>
+      <c r="E294" t="str">
+        <v>امسح رمز الاستجابة السريعة ضوئيًا لفتحه أو مشاركته مع الأصدقاء</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>shareResource.scan_app</v>
+      </c>
+      <c r="B295" t="str">
+        <v>101教育PPT、微信、钉钉等均可扫码</v>
+      </c>
+      <c r="C295" t="str">
+        <v>101 Education PPT, WeChat, Dingding, etc. can scan</v>
+      </c>
+      <c r="D295" t="str">
+        <v>101教育PPT、微信、釘釘等均可掃碼</v>
+      </c>
+      <c r="E295" t="str">
+        <v>يمكن فحص 101 Education PPT و WeChat و Dingding وما إلى ذلك</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>shareResource.copy_link</v>
+      </c>
+      <c r="B296" t="str">
+        <v>复制链接</v>
+      </c>
+      <c r="C296" t="str">
+        <v>Copy Link</v>
+      </c>
+      <c r="D296" t="str">
+        <v>複製鏈接</v>
+      </c>
+      <c r="E296" t="str">
+        <v>نسخ الوصلة</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>shareResource.copy_desc</v>
+      </c>
+      <c r="B297" t="str">
+        <v>来自101教育PPT的分享</v>
+      </c>
+      <c r="C297" t="str">
+        <v>Sharing from 101 Education PPT</v>
+      </c>
+      <c r="D297" t="str">
+        <v>來自101教育PPT的分享</v>
+      </c>
+      <c r="E297" t="str">
+        <v>مشاركة من 101 Education PPT</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>shareResource.copy_success_tip</v>
+      </c>
+      <c r="B298" t="str">
+        <v>链接复制成功，赶快去分享吧！</v>
+      </c>
+      <c r="C298" t="str">
+        <v>The link is copied successfully, go and share it!</v>
+      </c>
+      <c r="D298" t="str">
+        <v>鏈接複製成功，趕快去分享吧！</v>
+      </c>
+      <c r="E298" t="str">
+        <v>تم نسخ الرابط بنجاح ، انطلق وشاركه!</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>shareResource.pinyin_recommend</v>
+      </c>
+      <c r="B299" t="str">
+        <v>我推荐给你一个学科工具，对你有用：拼音拼读工具</v>
+      </c>
+      <c r="C299" t="str">
+        <v>I recommend to you a subject tool that is useful to you: Pinyin spelling tool</v>
+      </c>
+      <c r="D299" t="str">
+        <v>我推薦給你一個學科工具，對你有用：拼音拼讀工具</v>
+      </c>
+      <c r="E299" t="str">
+        <v>أوصيك باستخدام أداة موضوع مفيدة لك: أداة Pinyin للتهجئة</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>shareResource.common_recommend</v>
+      </c>
+      <c r="B300" t="str">
+        <v>我推荐给你一个{tag}{type}，对你有用：{name}</v>
+      </c>
+      <c r="C300" t="str">
+        <v>I recommend to you a {tag} {type}, useful to you: {name}</v>
+      </c>
+      <c r="D300" t="str">
+        <v>我推薦給你一個{tag}{type}，對你有用：{name}</v>
+      </c>
+      <c r="E300" t="str">
+        <v>أوصيك بـ {tag} {type} ، مفيد لك: {name}</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>shareResource.common_recommend_from</v>
+      </c>
+      <c r="B301" t="str">
+        <v>我推荐给你一个{tag}{type}，来自{from}，对你有用：{name}</v>
+      </c>
+      <c r="C301" t="str">
+        <v>I recommend to you a {tag} {type}, from {from}, useful to you: {name}</v>
+      </c>
+      <c r="D301" t="str">
+        <v>我推薦給你一個{tag}{type}，來自{from}，對你有用：{name}</v>
+      </c>
+      <c r="E301" t="str">
+        <v>اقترح عليك {tag} {type} ، من {from} ، مفيد لك: {name}</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>shareResource.courseware_recommend</v>
+      </c>
+      <c r="B302" t="str">
+        <v>我推荐给你一份{tag}{type}，对你有用：{name}</v>
+      </c>
+      <c r="C302" t="str">
+        <v>I recommend to you a {tag} {type}, useful to you: {name}</v>
+      </c>
+      <c r="D302" t="str">
+        <v>我推薦給你一份{tag}{type}，對你有用：{name}</v>
+      </c>
+      <c r="E302" t="str">
+        <v>أوصيك بـ {tag} {type} ، مفيد لك: {name}</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>shareResource.courseware_recommend_from</v>
+      </c>
+      <c r="B303" t="str">
+        <v>我推荐给你一份{tag}{type}，来自{from}，对你有用：{name}</v>
+      </c>
+      <c r="C303" t="str">
+        <v>I recommend to you a copy of {tag} {type}, from {from}, useful to you: {name}</v>
+      </c>
+      <c r="D303" t="str">
+        <v>我推薦給你一份{tag}{type}，來自{from}，對你有用：{name}</v>
+      </c>
+      <c r="E303" t="str">
+        <v>أنصحك بنسخة من {tag} {type} ، من {from} ، مفيدة لك: {name}</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>shareResource.netdisk_recommend_sharer</v>
+      </c>
+      <c r="B304" t="str">
+        <v>来自{sharer}的{type}分享，对你有用：资源名称{name}</v>
+      </c>
+      <c r="C304" t="str">
+        <v>{type} share from {sharer}, useful to you: resource name {name}</v>
+      </c>
+      <c r="D304" t="str">
+        <v>來自{sharer}的{type}分享，對你有用：資源名稱{name}</v>
+      </c>
+      <c r="E304" t="str">
+        <v>{Type} مشاركة من {sharer} ، مفيدة لك: اسم المورد {name}</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>shareResource.netdisk_recommend</v>
+      </c>
+      <c r="B305" t="str">
+        <v>来自我的{type}分享，对你有用：{name}</v>
+      </c>
+      <c r="C305" t="str">
+        <v>Sharing from my {type}, useful to you: {name}</v>
+      </c>
+      <c r="D305" t="str">
+        <v>來自我的{type}分享，對你有用：{name}</v>
+      </c>
+      <c r="E305" t="str">
+        <v>{Type} مشاركة مني ، مفيدة لك: {name}</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>shareResource.reading_recommend</v>
+      </c>
+      <c r="B306" t="str">
+        <v>我推荐给你一个朗读工具，对你有用：{name}</v>
+      </c>
+      <c r="C306" t="str">
+        <v>I recommend to you a reading tool, useful to you: {name}</v>
+      </c>
+      <c r="D306" t="str">
+        <v>我推薦給你一個朗讀工具，對你有用：{name}</v>
+      </c>
+      <c r="E306" t="str">
+        <v>أنصحك بأداة قراءة مفيدة لك: {name}</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>shareResource.click_to_open</v>
+      </c>
+      <c r="B307" t="str">
+        <v>点击链接即可观看</v>
+      </c>
+      <c r="C307" t="str">
+        <v>Click the link to watch</v>
+      </c>
+      <c r="D307" t="str">
+        <v>點擊鏈接即可觀看</v>
+      </c>
+      <c r="E307" t="str">
+        <v>اضغط على الرابط لمشاهدة</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>shareResource.share_error</v>
+      </c>
+      <c r="B308" t="str">
+        <v>出错了，请稍后再试</v>
+      </c>
+      <c r="C308" t="str">
+        <v>Please try again later</v>
+      </c>
+      <c r="D308" t="str">
+        <v>出錯了，請稍後再試</v>
+      </c>
+      <c r="E308" t="str">
+        <v>خارج، يرجى المحاولة مرة أخرى لاحقا</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>shareResource.share_offline_error</v>
+      </c>
+      <c r="B309" t="str">
+        <v>请刷新后重试</v>
+      </c>
+      <c r="C309" t="str">
+        <v>Please refresh and try again</v>
+      </c>
+      <c r="D309" t="str">
+        <v>請刷新後重試</v>
+      </c>
+      <c r="E309" t="str">
+        <v>يرجى تحديث وحاول مرة أخرى</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>aiAnime.ai_add_ta</v>
+      </c>
+      <c r="B310" t="str">
+        <v>自定义添加AI助教</v>
+      </c>
+      <c r="C310" t="str">
+        <v>Add a custom AI assistant</v>
+      </c>
+      <c r="D310" t="str">
+        <v>自定義添加AI助教</v>
+      </c>
+      <c r="E310" t="str">
+        <v>مخصص إضافة مساعد تدريس AI</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>aiAnime.ai_func1</v>
+      </c>
+      <c r="B311" t="str">
+        <v>自定义人物形象</v>
+      </c>
+      <c r="C311" t="str">
+        <v>Customize the character image</v>
+      </c>
+      <c r="D311" t="str">
+        <v>自定義人物形象</v>
+      </c>
+      <c r="E311" t="str">
+        <v>صورة شخصية مخصصة</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>aiAnime.ai_func2</v>
+      </c>
+      <c r="B312" t="str">
+        <v>可指定说话内容</v>
+      </c>
+      <c r="C312" t="str">
+        <v>You can specify what to say</v>
+      </c>
+      <c r="D312" t="str">
+        <v>可指定說話內容</v>
+      </c>
+      <c r="E312" t="str">
+        <v>يمكن تحديد محتوى الخطاب</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>aiAnime.ai_func3</v>
+      </c>
+      <c r="B313" t="str">
+        <v>支持手机遥控</v>
+      </c>
+      <c r="C313" t="str">
+        <v>Support mobile remote control</v>
+      </c>
+      <c r="D313" t="str">
+        <v>支持手機遙控</v>
+      </c>
+      <c r="E313" t="str">
+        <v>دعم جهاز التحكم عن بعد للهاتف المحمول</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>aiAnime.ai_add_title</v>
+      </c>
+      <c r="B314" t="str">
+        <v>添加AI助教</v>
+      </c>
+      <c r="C314" t="str">
+        <v>Add AI assistan</v>
+      </c>
+      <c r="D314" t="str">
+        <v>添加AI助教</v>
+      </c>
+      <c r="E314" t="str">
+        <v>إضافة مساعد تدريس AI</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>poetry.search_placeholder</v>
+      </c>
+      <c r="B315" t="str">
+        <v>搜索你想要的</v>
+      </c>
+      <c r="C315" t="str">
+        <v/>
+      </c>
+      <c r="D315" t="str">
+        <v>搜索你想要的</v>
+      </c>
+      <c r="E315" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>poetry.teaching_material</v>
+      </c>
+      <c r="B316" t="str">
+        <v>教材</v>
+      </c>
+      <c r="C316" t="str">
+        <v/>
+      </c>
+      <c r="D316" t="str">
+        <v>教材</v>
+      </c>
+      <c r="E316" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>poetry.poet</v>
+      </c>
+      <c r="B317" t="str">
+        <v>诗人</v>
+      </c>
+      <c r="C317" t="str">
+        <v/>
+      </c>
+      <c r="D317" t="str">
+        <v>詩人</v>
+      </c>
+      <c r="E317" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>poetry.search_result</v>
+      </c>
+      <c r="B318" t="str">
+        <v>在{type}分类下，共有{count}个与“{keyword}”相关的搜索结果</v>
+      </c>
+      <c r="C318" t="str">
+        <v/>
+      </c>
+      <c r="D318" t="str">
+        <v>在{type}分類下，共有{count}個與“{keyword}”相關的搜索結果</v>
+      </c>
+      <c r="E318" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>poetry.dynasty</v>
+      </c>
+      <c r="B319" t="str">
+        <v>朝代：</v>
+      </c>
+      <c r="C319" t="str">
+        <v/>
+      </c>
+      <c r="D319" t="str">
+        <v>朝代：</v>
+      </c>
+      <c r="E319" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E45"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E319"/>
   </ignoredErrors>
 </worksheet>
 </file>